--- a/old/temp01/pin2.xlsx
+++ b/old/temp01/pin2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>G</t>
     <phoneticPr fontId="1"/>
@@ -189,6 +189,10 @@
   </si>
   <si>
     <t>Pump</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -238,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -571,128 +575,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,13 +750,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>57944</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -1055,468 +1093,498 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AI16"/>
+  <dimension ref="B2:AM16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AI17" sqref="AI17"/>
+      <selection activeCell="AL4" sqref="AL4:AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="32" width="2.26953125" customWidth="1"/>
-    <col min="33" max="33" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="53" width="2.26953125" customWidth="1"/>
+    <col min="1" max="35" width="2.26953125" customWidth="1"/>
+    <col min="36" max="36" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="56" width="2.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="P2" s="28" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="S2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="V2" s="28" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="Y2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AG2" t="s">
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AJ2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2">
+      <c r="AL2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="9"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="9"/>
-      <c r="AG3" t="s">
+      <c r="AM2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="E3" s="16"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="33"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="13"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="13"/>
+      <c r="AJ3" t="s">
         <v>34</v>
       </c>
-      <c r="AI3">
+      <c r="AL3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="11"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="11"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="11"/>
-      <c r="AG4" t="s">
+      <c r="AM3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="E4" s="17"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="34"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="15"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="15"/>
+      <c r="AJ4" t="s">
         <v>36</v>
       </c>
-      <c r="AI4">
+      <c r="AL4" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="E5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="11"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="11"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="11"/>
-      <c r="AG5" t="s">
+      <c r="J5" s="35"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="15"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="15"/>
+      <c r="AJ5" t="s">
         <v>37</v>
       </c>
-      <c r="AI5">
+      <c r="AL5" s="43"/>
+    </row>
+    <row r="6" spans="2:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="26"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="36"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="20"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="20"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="20"/>
+      <c r="AJ6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL6" s="43"/>
+    </row>
+    <row r="7" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AJ7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL7" s="43"/>
+    </row>
+    <row r="8" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AJ8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL8">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="14"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="14"/>
-      <c r="AG6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI6">
+    <row r="9" spans="2:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="AJ9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL9">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B7" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AG7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI7">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B10" s="16">
+        <v>3.3</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
+        <v>12</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="5"/>
+      <c r="AB10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="5"/>
+      <c r="AJ10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL10">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AG8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI8">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B11" s="17"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="42"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="8"/>
+      <c r="AJ11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="31"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y12" s="41"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="8"/>
+      <c r="AJ12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="11"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="11"/>
+      <c r="AJ13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="AJ14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AJ15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL15">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="AG9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="F10" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8">
-        <v>5</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8">
-        <v>12</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="9"/>
-      <c r="Y10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="24"/>
-      <c r="AG10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="F11" s="10"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="11"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="11"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="27"/>
-      <c r="AG11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI11">
+    <row r="16" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AJ16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL16">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="F12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U12" s="11"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="27"/>
-      <c r="AG12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="14"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="29"/>
-      <c r="AG13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="N14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="AG14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="AG15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="AG16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI16">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="N14:Q14"/>
+  <mergeCells count="55">
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="X12:Y13"/>
+    <mergeCell ref="X10:Y11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="V12:W13"/>
+    <mergeCell ref="T12:U13"/>
+    <mergeCell ref="R12:S13"/>
+    <mergeCell ref="R10:S11"/>
+    <mergeCell ref="T10:U11"/>
+    <mergeCell ref="V10:W11"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AE5:AF6"/>
+    <mergeCell ref="AC3:AD4"/>
+    <mergeCell ref="AC5:AD6"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="AA5:AB6"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="Y3:Z4"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="S3:T4"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="O3:P4"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
     <mergeCell ref="R14:U14"/>
-    <mergeCell ref="Y10:AC13"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="V2:AC2"/>
-    <mergeCell ref="V7:AC7"/>
-    <mergeCell ref="N9:U9"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="AB10:AF13"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="Y7:AF7"/>
+    <mergeCell ref="R9:Y9"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="L10:M11"/>
     <mergeCell ref="J10:K11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:I13"/>
     <mergeCell ref="J12:K13"/>
-    <mergeCell ref="T10:U11"/>
-    <mergeCell ref="T12:U13"/>
-    <mergeCell ref="R10:S11"/>
-    <mergeCell ref="P10:Q11"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="R12:S13"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="V3:W4"/>
-    <mergeCell ref="V5:W6"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="P5:Q6"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="AB3:AC4"/>
-    <mergeCell ref="AB5:AC6"/>
-    <mergeCell ref="Z3:AA4"/>
-    <mergeCell ref="Z5:AA6"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="X3:Y4"/>
-    <mergeCell ref="X5:Y6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/old/temp01/pin2.xlsx
+++ b/old/temp01/pin2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="345" windowWidth="23190" windowHeight="10410"/>
+    <workbookView xWindow="320" yWindow="350" windowWidth="23190" windowHeight="10410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>attachInterrupt(interrupt, function, mode)</t>
   </si>
@@ -89,123 +89,135 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>TFT_eSPI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BME280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAN-LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DS18B20-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DS18B20-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DS18B20-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DS18B20-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeoPixel-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAN-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAN-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEN0217</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEN0217</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DS18B20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAN-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAN-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+12V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RPM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeoPixel-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeoPixel-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeoPixel-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDC-Pump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>D5Pump</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TFT_eSPI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BME280</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FAN-LED</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DS18B20-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DS18B20-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DS18B20-3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DS18B20-4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NeoPixel-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FAN-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FAN-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEN0217</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEN0217</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DS18B20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FAN-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FAN-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>+12V</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RPM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PWM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>+V</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NeoPixel-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NeoPixel-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NeoPixel-2</t>
+    <t>D5Pump</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>DDC-Pump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Out-FAN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1009,21 +1021,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,16 +1091,259 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1118,253 +1358,25 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1731,715 +1743,737 @@
   <dimension ref="B1:AO21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AJ16" sqref="AJ16"/>
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="35" width="2.25" customWidth="1"/>
-    <col min="36" max="36" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="3.75" style="17" customWidth="1"/>
-    <col min="41" max="41" width="3.75" customWidth="1"/>
-    <col min="42" max="56" width="2.25" customWidth="1"/>
+    <col min="1" max="35" width="2.26953125" customWidth="1"/>
+    <col min="36" max="36" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="3.7265625" style="12" customWidth="1"/>
+    <col min="41" max="41" width="3.7265625" customWidth="1"/>
+    <col min="42" max="56" width="2.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="17"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60" t="s">
+    <row r="1" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="12"/>
+      <c r="AJ2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK2" s="13">
+        <v>7</v>
+      </c>
+      <c r="AL2" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN2" s="14"/>
+    </row>
+    <row r="3" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="117" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="93"/>
+      <c r="G3" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="97"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="85"/>
+      <c r="S3" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="93"/>
+      <c r="U3" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="97"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="114"/>
+      <c r="AA3" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="12"/>
+      <c r="AJ3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK3" s="15">
+        <v>4</v>
+      </c>
+      <c r="AL3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN3" s="16"/>
+    </row>
+    <row r="4" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="135"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="12"/>
+      <c r="AJ4" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="137">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="18"/>
+    </row>
+    <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="12"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="120"/>
+      <c r="G5" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="124"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="89"/>
+      <c r="S5" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="106"/>
+      <c r="U5" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="110"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" s="114"/>
+      <c r="AA5" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="12"/>
+      <c r="AJ5" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="138"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="20"/>
+    </row>
+    <row r="6" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="115"/>
+      <c r="Z6" s="116"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="136"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="128"/>
+      <c r="AG6" s="12"/>
+      <c r="AJ6" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="138"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="20"/>
+    </row>
+    <row r="7" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="64" t="s">
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="17"/>
-      <c r="AJ2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK2" s="18">
-        <v>7</v>
-      </c>
-      <c r="AL2" s="18">
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="12"/>
+      <c r="AJ7" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK7" s="21">
         <v>0</v>
       </c>
-      <c r="AM2" s="18" t="s">
+      <c r="AL7" s="139"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="22"/>
+    </row>
+    <row r="8" spans="2:40" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="12"/>
+      <c r="AJ8" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="78">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="18"/>
+    </row>
+    <row r="9" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="12"/>
+      <c r="AJ9" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="79"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="22"/>
+    </row>
+    <row r="10" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z10" s="100"/>
+      <c r="AA10" s="100"/>
+      <c r="AB10" s="100"/>
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="100"/>
+      <c r="AE10" s="100"/>
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="12"/>
+      <c r="AJ10" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="23">
+        <v>4</v>
+      </c>
+      <c r="AM10" s="23"/>
+      <c r="AN10" s="24"/>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B11" s="12"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB11" s="134"/>
+      <c r="AC11" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD11" s="130"/>
+      <c r="AE11" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF11" s="127"/>
+      <c r="AG11" s="12"/>
+      <c r="AJ11" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="19">
+        <v>4</v>
+      </c>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="20"/>
+    </row>
+    <row r="12" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="136"/>
+      <c r="AC12" s="131"/>
+      <c r="AD12" s="132"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="128"/>
+      <c r="AG12" s="12"/>
+      <c r="AJ12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK12" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="21">
+        <v>4</v>
+      </c>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="22"/>
+    </row>
+    <row r="13" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB13" s="134"/>
+      <c r="AC13" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD13" s="130"/>
+      <c r="AE13" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF13" s="127"/>
+      <c r="AG13" s="12"/>
+      <c r="AJ13" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="19"/>
-    </row>
-    <row r="3" spans="2:40" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="17"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="138" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="132"/>
-      <c r="U3" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" s="57"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="17"/>
-      <c r="AJ3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK3" s="20">
+      <c r="AK13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="25">
+        <v>3</v>
+      </c>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="26"/>
+    </row>
+    <row r="14" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="136"/>
+      <c r="AC14" s="131"/>
+      <c r="AD14" s="132"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="128"/>
+      <c r="AG14" s="12"/>
+      <c r="AJ14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="23">
         <v>4</v>
       </c>
-      <c r="AL3" s="20">
+      <c r="AM14" s="23"/>
+      <c r="AN14" s="24"/>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B15" s="12"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="83"/>
+      <c r="AF15" s="83"/>
+      <c r="AG15" s="12"/>
+      <c r="AJ15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK15" s="19">
         <v>0</v>
       </c>
-      <c r="AM3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN3" s="21"/>
-    </row>
-    <row r="4" spans="2:40" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="17"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="17"/>
-      <c r="AJ4" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="14">
+      <c r="AL15" s="19">
         <v>3</v>
       </c>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="23"/>
-    </row>
-    <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="17"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="124" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="128" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="92"/>
-      <c r="S5" s="134" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="135"/>
-      <c r="U5" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="94"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB5" s="73"/>
-      <c r="AC5" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF5" s="75"/>
-      <c r="AG5" s="17"/>
-      <c r="AJ5" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK5" s="24">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="25"/>
-    </row>
-    <row r="6" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="17"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="137"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="17"/>
-      <c r="AJ6" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK6" s="24">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="25"/>
-    </row>
-    <row r="7" spans="2:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="17"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="106" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z7" s="106"/>
-      <c r="AA7" s="106"/>
-      <c r="AB7" s="106"/>
-      <c r="AC7" s="106"/>
-      <c r="AD7" s="106"/>
-      <c r="AE7" s="106"/>
-      <c r="AF7" s="106"/>
-      <c r="AG7" s="17"/>
-      <c r="AJ7" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="27"/>
-    </row>
-    <row r="8" spans="2:40" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="17"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="17"/>
-      <c r="AJ8" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="12">
-        <v>4</v>
-      </c>
-      <c r="AM8" s="22"/>
-      <c r="AN8" s="23"/>
-    </row>
-    <row r="9" spans="2:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="17"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="17"/>
-      <c r="AJ9" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK9" s="26">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="27"/>
-    </row>
-    <row r="10" spans="2:40" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="17"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="17"/>
-      <c r="AJ10" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK10" s="28">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="28">
-        <v>4</v>
-      </c>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="29"/>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="B11" s="17"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="17"/>
-      <c r="AJ11" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK11" s="24">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="24">
-        <v>4</v>
-      </c>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="25"/>
-    </row>
-    <row r="12" spans="2:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="17"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="17"/>
-      <c r="AJ12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK12" s="26">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="26">
-        <v>4</v>
-      </c>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="27"/>
-    </row>
-    <row r="13" spans="2:40" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="17"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="88"/>
-      <c r="AE13" s="89"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="17"/>
-      <c r="AJ13" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK13" s="30">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="30">
-        <v>3</v>
-      </c>
-      <c r="AM13" s="30"/>
-      <c r="AN13" s="31"/>
-    </row>
-    <row r="14" spans="2:40" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="17"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="122"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="98"/>
-      <c r="AG14" s="17"/>
-      <c r="AJ14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK14" s="28">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="28">
-        <v>4</v>
-      </c>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="29"/>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="B15" s="17"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="104"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="104"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="104"/>
-      <c r="AF15" s="104"/>
-      <c r="AG15" s="17"/>
-      <c r="AJ15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK15" s="24">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="24">
-        <v>3</v>
-      </c>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="25"/>
-    </row>
-    <row r="16" spans="2:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="34"/>
-    </row>
-    <row r="17" spans="36:41" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="36">
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="20"/>
+    </row>
+    <row r="16" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="29"/>
+    </row>
+    <row r="17" spans="36:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="31">
         <f>SUM(AK2:AK16)</f>
         <v>11</v>
       </c>
-      <c r="AL17" s="36">
+      <c r="AL17" s="31">
         <f>SUM(AL2:AL16)</f>
-        <v>29</v>
-      </c>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="37"/>
-    </row>
-    <row r="18" spans="36:41" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="36:41" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="32"/>
+    </row>
+    <row r="18" spans="36:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="36:41" x14ac:dyDescent="0.2">
       <c r="AK19" s="1">
         <v>4</v>
       </c>
@@ -2457,7 +2491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="36:41" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="36:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AK20" s="5">
         <v>4</v>
       </c>
@@ -2475,54 +2509,61 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="36:41" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="40">
+    <row r="21" spans="36:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="34"/>
+      <c r="AM21" s="34"/>
+      <c r="AN21" s="34"/>
+      <c r="AO21" s="35">
         <f>SUM(AO19:AO20)</f>
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="43">
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="AC13:AD14"/>
+    <mergeCell ref="AE13:AF14"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="AC11:AD12"/>
+    <mergeCell ref="AE11:AF12"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="S3:T4"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="U5:V6"/>
     <mergeCell ref="AL8:AL9"/>
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="Q7:V7"/>
     <mergeCell ref="I10:N10"/>
     <mergeCell ref="I15:N15"/>
     <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="S3:T4"/>
-    <mergeCell ref="U3:V4"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="Y7:AF7"/>
     <mergeCell ref="Y10:AF10"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="U5:V6"/>
     <mergeCell ref="Y3:Z4"/>
     <mergeCell ref="Y5:Z6"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:H6"/>
     <mergeCell ref="AE5:AF6"/>
     <mergeCell ref="AC3:AD4"/>
     <mergeCell ref="AC5:AD6"/>
     <mergeCell ref="AA3:AB4"/>
     <mergeCell ref="AA5:AB6"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AE3:AF4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2542,132 +2583,132 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>14</v>
       </c>
@@ -2685,7 +2726,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/old/temp01/pin2.xlsx
+++ b/old/temp01/pin2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>attachInterrupt(interrupt, function, mode)</t>
   </si>
@@ -93,31 +93,143 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>FAN-LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DS18B20-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DS18B20-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DS18B20-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DS18B20-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeoPixel-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAN-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAN-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEN0217</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DS18B20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+12V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RPM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeoPixel-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeoPixel-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDC-Pump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D5Pump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Out-FAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>BME280</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FAN-LED</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DS18B20-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DS18B20-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DS18B20-3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DS18B20-4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NeoPixel-2</t>
+    <t>BME280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DS18B20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEN0217</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEN0217</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeoPixel-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeoPixel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDC-Pump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D5Pump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D5Pump</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -129,95 +241,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEN0217</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEN0217</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DS18B20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FAN-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FAN-2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>G</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>+12V</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RPM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PWM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>+V</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NeoPixel-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NeoPixel-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NeoPixel-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DDC-Pump</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D5Pump</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D5Pump</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DDC-Pump</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Out-FAN</t>
+    <t>DDC</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -225,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +287,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -312,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1004,11 +1039,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1019,7 +1091,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1033,37 +1104,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
@@ -1193,6 +1246,171 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1208,176 +1426,94 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1399,13 +1535,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>10319</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1740,740 +1876,795 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AO21"/>
+  <dimension ref="B1:AO26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+      <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="35" width="2.26953125" customWidth="1"/>
     <col min="36" max="36" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="3.7265625" style="12" customWidth="1"/>
+    <col min="37" max="40" width="3.7265625" style="11" customWidth="1"/>
     <col min="41" max="41" width="3.7265625" customWidth="1"/>
     <col min="42" max="56" width="2.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="131" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="11"/>
       <c r="AJ2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="13">
+      <c r="AK2" s="12">
         <v>7</v>
       </c>
-      <c r="AL2" s="13">
+      <c r="AL2" s="12">
         <v>0</v>
       </c>
-      <c r="AM2" s="13" t="s">
+      <c r="AM2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN2" s="13"/>
+    </row>
+    <row r="3" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="99"/>
+      <c r="G3" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="103"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="115"/>
+      <c r="S3" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="99"/>
+      <c r="U3" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="103"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="11"/>
+      <c r="AJ3" s="158" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" s="14">
+        <v>4</v>
+      </c>
+      <c r="AL3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN3" s="146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="11"/>
+      <c r="AJ4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="87">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="11"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="107"/>
+      <c r="G5" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="111"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="119"/>
+      <c r="S5" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="95"/>
+      <c r="U5" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="123"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="11"/>
+      <c r="AJ5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="88"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="124"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="85"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="11"/>
+      <c r="AJ6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="88"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="AN2" s="14"/>
-    </row>
-    <row r="3" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="117" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="85"/>
-      <c r="S3" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="93"/>
-      <c r="U3" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" s="97"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="133" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="130"/>
-      <c r="AE3" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="12"/>
-      <c r="AJ3" s="10" t="s">
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="132" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z7" s="132"/>
+      <c r="AA7" s="132"/>
+      <c r="AB7" s="132"/>
+      <c r="AC7" s="132"/>
+      <c r="AD7" s="132"/>
+      <c r="AE7" s="132"/>
+      <c r="AF7" s="132"/>
+      <c r="AG7" s="11"/>
+      <c r="AJ7" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="11"/>
+      <c r="AJ8" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="126">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="11"/>
+      <c r="AJ9" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="127"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="11"/>
+      <c r="AJ10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="18">
+        <v>4</v>
+      </c>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="150"/>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF11" s="84"/>
+      <c r="AG11" s="11"/>
+      <c r="AJ11" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="16">
+        <v>4</v>
+      </c>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="148"/>
+    </row>
+    <row r="12" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="85"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="11"/>
+      <c r="AJ12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AK3" s="15">
+      <c r="AK12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="17">
         <v>4</v>
       </c>
-      <c r="AL3" s="15">
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="149"/>
+    </row>
+    <row r="13" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD13" s="80"/>
+      <c r="AE13" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="11"/>
+      <c r="AJ13" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK13" s="19">
         <v>0</v>
       </c>
-      <c r="AM3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN3" s="16"/>
-    </row>
-    <row r="4" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="135"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="128"/>
-      <c r="AG4" s="12"/>
-      <c r="AJ4" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK4" s="17">
+      <c r="AL13" s="19">
+        <v>3</v>
+      </c>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="151">
         <v>0</v>
       </c>
-      <c r="AL4" s="137">
+    </row>
+    <row r="14" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="78"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="85"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="11"/>
+      <c r="AJ14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="18">
+        <v>4</v>
+      </c>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="150"/>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="11"/>
+      <c r="AJ15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="16">
         <v>3</v>
       </c>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="18"/>
-    </row>
-    <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="119" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="120"/>
-      <c r="G5" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" s="89"/>
-      <c r="S5" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="106"/>
-      <c r="U5" s="109" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5" s="110"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="133" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD5" s="130"/>
-      <c r="AE5" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="12"/>
-      <c r="AJ5" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="138"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="20"/>
-    </row>
-    <row r="6" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="115"/>
-      <c r="Z6" s="116"/>
-      <c r="AA6" s="135"/>
-      <c r="AB6" s="136"/>
-      <c r="AC6" s="131"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="128"/>
-      <c r="AG6" s="12"/>
-      <c r="AJ6" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="138"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="20"/>
-    </row>
-    <row r="7" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="104" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="102" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z7" s="102"/>
-      <c r="AA7" s="102"/>
-      <c r="AB7" s="102"/>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="102"/>
-      <c r="AE7" s="102"/>
-      <c r="AF7" s="102"/>
-      <c r="AG7" s="12"/>
-      <c r="AJ7" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="139"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="22"/>
-    </row>
-    <row r="8" spans="2:40" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="12"/>
-      <c r="AJ8" s="42" t="s">
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="148"/>
+    </row>
+    <row r="16" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AK8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="78">
-        <v>4</v>
-      </c>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="18"/>
-    </row>
-    <row r="9" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="12"/>
-      <c r="AJ9" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK9" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="79"/>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="22"/>
-    </row>
-    <row r="10" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z10" s="100"/>
-      <c r="AA10" s="100"/>
-      <c r="AB10" s="100"/>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="100"/>
-      <c r="AE10" s="100"/>
-      <c r="AF10" s="100"/>
-      <c r="AG10" s="12"/>
-      <c r="AJ10" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK10" s="23">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="23">
-        <v>4</v>
-      </c>
-      <c r="AM10" s="23"/>
-      <c r="AN10" s="24"/>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="133" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB11" s="134"/>
-      <c r="AC11" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD11" s="130"/>
-      <c r="AE11" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF11" s="127"/>
-      <c r="AG11" s="12"/>
-      <c r="AJ11" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK11" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="19">
-        <v>4</v>
-      </c>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="20"/>
-    </row>
-    <row r="12" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="135"/>
-      <c r="AB12" s="136"/>
-      <c r="AC12" s="131"/>
-      <c r="AD12" s="132"/>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="128"/>
-      <c r="AG12" s="12"/>
-      <c r="AJ12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK12" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="21">
-        <v>4</v>
-      </c>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="22"/>
-    </row>
-    <row r="13" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z13" s="114"/>
-      <c r="AA13" s="133" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB13" s="134"/>
-      <c r="AC13" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD13" s="130"/>
-      <c r="AE13" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF13" s="127"/>
-      <c r="AG13" s="12"/>
-      <c r="AJ13" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="25">
-        <v>3</v>
-      </c>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="26"/>
-    </row>
-    <row r="14" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="115"/>
-      <c r="Z14" s="116"/>
-      <c r="AA14" s="135"/>
-      <c r="AB14" s="136"/>
-      <c r="AC14" s="131"/>
-      <c r="AD14" s="132"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="128"/>
-      <c r="AG14" s="12"/>
-      <c r="AJ14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK14" s="23">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="23">
-        <v>4</v>
-      </c>
-      <c r="AM14" s="23"/>
-      <c r="AN14" s="24"/>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="83"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="83"/>
-      <c r="AE15" s="83"/>
-      <c r="AF15" s="83"/>
-      <c r="AG15" s="12"/>
-      <c r="AJ15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK15" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="19">
-        <v>3</v>
-      </c>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="20"/>
-    </row>
-    <row r="16" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AJ16" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28">
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21">
         <v>2</v>
       </c>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="29"/>
-    </row>
-    <row r="17" spans="36:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="31">
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="22"/>
+    </row>
+    <row r="17" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="24">
         <f>SUM(AK2:AK16)</f>
         <v>11</v>
       </c>
-      <c r="AL17" s="31">
+      <c r="AL17" s="24">
         <f>SUM(AL2:AL16)</f>
         <v>31</v>
       </c>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="32"/>
-    </row>
-    <row r="18" spans="36:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="36:41" x14ac:dyDescent="0.2">
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="25"/>
+    </row>
+    <row r="18" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="133"/>
+      <c r="O18" s="152" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="154"/>
+      <c r="U18" s="155" t="s">
+        <v>61</v>
+      </c>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="157"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="142"/>
+      <c r="AA18" s="142"/>
+      <c r="AB18" s="138"/>
+    </row>
+    <row r="19" spans="14:41" x14ac:dyDescent="0.2">
+      <c r="N19" s="133"/>
+      <c r="O19" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" s="144"/>
+      <c r="Q19" s="144"/>
+      <c r="R19" s="144"/>
+      <c r="S19" s="144"/>
+      <c r="T19" s="145"/>
+      <c r="U19" s="139" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" s="140"/>
+      <c r="W19" s="140"/>
+      <c r="X19" s="141"/>
+      <c r="Y19" s="133"/>
+      <c r="Z19" s="133"/>
+      <c r="AA19" s="133"/>
+      <c r="AB19" s="133"/>
       <c r="AK19" s="1">
         <v>4</v>
       </c>
@@ -2491,7 +2682,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="36:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="133"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="133"/>
+      <c r="R20" s="133"/>
+      <c r="S20" s="133"/>
+      <c r="T20" s="133"/>
+      <c r="U20" s="133"/>
+      <c r="V20" s="133"/>
+      <c r="W20" s="133"/>
+      <c r="X20" s="133"/>
+      <c r="Y20" s="133"/>
+      <c r="Z20" s="133"/>
+      <c r="AA20" s="133"/>
+      <c r="AB20" s="133"/>
       <c r="AK20" s="5">
         <v>4</v>
       </c>
@@ -2509,50 +2715,135 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="36:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AK21" s="33"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="34"/>
-      <c r="AN21" s="34"/>
-      <c r="AO21" s="35">
+    <row r="21" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="133"/>
+      <c r="S21" s="133"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="133"/>
+      <c r="V21" s="133"/>
+      <c r="W21" s="133"/>
+      <c r="X21" s="133"/>
+      <c r="Y21" s="133"/>
+      <c r="Z21" s="133"/>
+      <c r="AA21" s="133"/>
+      <c r="AB21" s="133"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="28">
         <f>SUM(AO19:AO20)</f>
         <v>46</v>
       </c>
     </row>
+    <row r="22" spans="14:41" x14ac:dyDescent="0.2">
+      <c r="N22" s="133"/>
+      <c r="O22" s="133"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="133"/>
+      <c r="R22" s="133"/>
+      <c r="S22" s="133"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="133"/>
+      <c r="V22" s="133"/>
+      <c r="W22" s="133"/>
+      <c r="X22" s="133"/>
+      <c r="Y22" s="133"/>
+      <c r="Z22" s="133"/>
+      <c r="AA22" s="133"/>
+      <c r="AB22" s="133"/>
+    </row>
+    <row r="23" spans="14:41" x14ac:dyDescent="0.2">
+      <c r="N23" s="133"/>
+      <c r="O23" s="133"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="133"/>
+      <c r="R23" s="133"/>
+      <c r="S23" s="133"/>
+      <c r="T23" s="133"/>
+      <c r="U23" s="133"/>
+      <c r="V23" s="133"/>
+      <c r="W23" s="133"/>
+      <c r="X23" s="133"/>
+      <c r="Y23" s="133"/>
+      <c r="Z23" s="133"/>
+      <c r="AA23" s="133"/>
+      <c r="AB23" s="133"/>
+    </row>
+    <row r="24" spans="14:41" x14ac:dyDescent="0.2">
+      <c r="N24" s="133"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="133"/>
+      <c r="R24" s="133"/>
+      <c r="S24" s="133"/>
+      <c r="T24" s="133"/>
+      <c r="U24" s="133"/>
+      <c r="V24" s="133"/>
+      <c r="W24" s="133"/>
+      <c r="X24" s="133"/>
+      <c r="Y24" s="133"/>
+      <c r="Z24" s="133"/>
+      <c r="AA24" s="133"/>
+      <c r="AB24" s="133"/>
+    </row>
+    <row r="25" spans="14:41" x14ac:dyDescent="0.2">
+      <c r="N25" s="133"/>
+      <c r="O25" s="159" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25" s="160"/>
+      <c r="Q25" s="160"/>
+      <c r="R25" s="160"/>
+      <c r="S25" s="160"/>
+      <c r="T25" s="160"/>
+      <c r="U25" s="160"/>
+      <c r="V25" s="161"/>
+      <c r="W25" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="X25" s="142"/>
+      <c r="Y25" s="142"/>
+      <c r="Z25" s="138"/>
+      <c r="AA25" s="133"/>
+      <c r="AB25" s="133"/>
+    </row>
+    <row r="26" spans="14:41" x14ac:dyDescent="0.2">
+      <c r="N26" s="133"/>
+      <c r="O26" s="134" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="135"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="136"/>
+      <c r="U26" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="V26" s="142"/>
+      <c r="W26" s="142"/>
+      <c r="X26" s="142"/>
+      <c r="Y26" s="142"/>
+      <c r="Z26" s="138"/>
+      <c r="AA26" s="133"/>
+      <c r="AB26" s="133"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="AC13:AD14"/>
-    <mergeCell ref="AE13:AF14"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AA11:AB12"/>
-    <mergeCell ref="AC11:AD12"/>
-    <mergeCell ref="AE11:AF12"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="S3:T4"/>
-    <mergeCell ref="U3:V4"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="I15:N15"/>
+  <mergeCells count="52">
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="O25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="O26:T26"/>
+    <mergeCell ref="U26:Z26"/>
     <mergeCell ref="Y15:AF15"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="Y7:AF7"/>
@@ -2564,6 +2855,38 @@
     <mergeCell ref="AC5:AD6"/>
     <mergeCell ref="AA3:AB4"/>
     <mergeCell ref="AA5:AB6"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="S3:T4"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="AC13:AD14"/>
+    <mergeCell ref="AE13:AF14"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="AC11:AD12"/>
+    <mergeCell ref="AE11:AF12"/>
+    <mergeCell ref="AL8:AL9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/old/temp01/pin2.xlsx
+++ b/old/temp01/pin2.xlsx
@@ -1246,193 +1246,80 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1442,78 +1329,191 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1896,40 +1896,40 @@
       <c r="B2" s="11"/>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
       <c r="O2" s="38"/>
       <c r="P2" s="37"/>
-      <c r="Q2" s="128" t="s">
+      <c r="Q2" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
       <c r="W2" s="37"/>
       <c r="X2" s="37"/>
-      <c r="Y2" s="131" t="s">
+      <c r="Y2" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="131"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
       <c r="AG2" s="11"/>
       <c r="AJ2" s="9" t="s">
         <v>23</v>
@@ -1949,14 +1949,14 @@
       <c r="B3" s="11"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="102" t="s">
+      <c r="F3" s="128"/>
+      <c r="G3" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="103"/>
+      <c r="H3" s="131"/>
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
       <c r="K3" s="39"/>
@@ -1965,38 +1965,38 @@
       <c r="N3" s="42"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
-      <c r="Q3" s="114" t="s">
+      <c r="Q3" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="115"/>
-      <c r="S3" s="83" t="s">
+      <c r="R3" s="121"/>
+      <c r="S3" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="99"/>
-      <c r="U3" s="102" t="s">
+      <c r="T3" s="128"/>
+      <c r="U3" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="103"/>
+      <c r="V3" s="131"/>
       <c r="W3" s="37"/>
       <c r="X3" s="37"/>
-      <c r="Y3" s="71" t="s">
+      <c r="Y3" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="75" t="s">
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="79" t="s">
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="83" t="s">
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="84"/>
+      <c r="AF3" s="109"/>
       <c r="AG3" s="11"/>
-      <c r="AJ3" s="158" t="s">
+      <c r="AJ3" s="78" t="s">
         <v>49</v>
       </c>
       <c r="AK3" s="14">
@@ -2008,7 +2008,7 @@
       <c r="AM3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AN3" s="146">
+      <c r="AN3" s="72">
         <v>0</v>
       </c>
     </row>
@@ -2016,10 +2016,10 @@
       <c r="B4" s="11"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="105"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="133"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
       <c r="K4" s="43"/>
@@ -2028,22 +2028,22 @@
       <c r="N4" s="46"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="105"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="133"/>
       <c r="W4" s="37"/>
       <c r="X4" s="37"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="86"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="111"/>
       <c r="AG4" s="11"/>
       <c r="AJ4" s="29" t="s">
         <v>25</v>
@@ -2051,11 +2051,11 @@
       <c r="AK4" s="15">
         <v>0</v>
       </c>
-      <c r="AL4" s="87">
+      <c r="AL4" s="157">
         <v>3</v>
       </c>
       <c r="AM4" s="15"/>
-      <c r="AN4" s="147">
+      <c r="AN4" s="73">
         <v>0</v>
       </c>
     </row>
@@ -2063,14 +2063,14 @@
       <c r="B5" s="11"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="107"/>
-      <c r="G5" s="110" t="s">
+      <c r="F5" s="149"/>
+      <c r="G5" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="111"/>
+      <c r="H5" s="153"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
       <c r="K5" s="47"/>
@@ -2079,36 +2079,36 @@
       <c r="N5" s="50"/>
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
-      <c r="Q5" s="118" t="s">
+      <c r="Q5" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="119"/>
-      <c r="S5" s="94" t="s">
+      <c r="R5" s="125"/>
+      <c r="S5" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="95"/>
-      <c r="U5" s="122" t="s">
+      <c r="T5" s="143"/>
+      <c r="U5" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="123"/>
+      <c r="V5" s="135"/>
       <c r="W5" s="37"/>
       <c r="X5" s="37"/>
-      <c r="Y5" s="71" t="s">
+      <c r="Y5" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="75" t="s">
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="79" t="s">
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="83" t="s">
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="AF5" s="84"/>
+      <c r="AF5" s="109"/>
       <c r="AG5" s="11"/>
       <c r="AJ5" s="30" t="s">
         <v>26</v>
@@ -2116,9 +2116,9 @@
       <c r="AK5" s="16">
         <v>0</v>
       </c>
-      <c r="AL5" s="88"/>
+      <c r="AL5" s="158"/>
       <c r="AM5" s="16"/>
-      <c r="AN5" s="148">
+      <c r="AN5" s="74">
         <v>0</v>
       </c>
     </row>
@@ -2126,10 +2126,10 @@
       <c r="B6" s="11"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="113"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="155"/>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="51"/>
@@ -2138,22 +2138,22 @@
       <c r="N6" s="54"/>
       <c r="O6" s="37"/>
       <c r="P6" s="37"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="125"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="144"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="136"/>
+      <c r="V6" s="137"/>
       <c r="W6" s="37"/>
       <c r="X6" s="37"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="86"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="118"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="115"/>
+      <c r="AE6" s="110"/>
+      <c r="AF6" s="111"/>
       <c r="AG6" s="11"/>
       <c r="AJ6" s="30" t="s">
         <v>27</v>
@@ -2161,9 +2161,9 @@
       <c r="AK6" s="16">
         <v>0</v>
       </c>
-      <c r="AL6" s="88"/>
+      <c r="AL6" s="158"/>
       <c r="AM6" s="16"/>
-      <c r="AN6" s="148">
+      <c r="AN6" s="74">
         <v>0</v>
       </c>
     </row>
@@ -2171,40 +2171,40 @@
       <c r="B7" s="11"/>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
       <c r="O7" s="37"/>
       <c r="P7" s="37"/>
-      <c r="Q7" s="129" t="s">
+      <c r="Q7" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="129"/>
+      <c r="R7" s="138"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="138"/>
       <c r="W7" s="37"/>
       <c r="X7" s="37"/>
-      <c r="Y7" s="132" t="s">
+      <c r="Y7" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="132"/>
-      <c r="AA7" s="132"/>
-      <c r="AB7" s="132"/>
-      <c r="AC7" s="132"/>
-      <c r="AD7" s="132"/>
-      <c r="AE7" s="132"/>
-      <c r="AF7" s="132"/>
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="102"/>
       <c r="AG7" s="11"/>
       <c r="AJ7" s="31" t="s">
         <v>28</v>
@@ -2212,9 +2212,9 @@
       <c r="AK7" s="17">
         <v>0</v>
       </c>
-      <c r="AL7" s="89"/>
+      <c r="AL7" s="159"/>
       <c r="AM7" s="17"/>
-      <c r="AN7" s="149">
+      <c r="AN7" s="75">
         <v>0</v>
       </c>
     </row>
@@ -2257,11 +2257,11 @@
       <c r="AK8" s="15">
         <v>0</v>
       </c>
-      <c r="AL8" s="126">
+      <c r="AL8" s="160">
         <v>4</v>
       </c>
       <c r="AM8" s="15"/>
-      <c r="AN8" s="147">
+      <c r="AN8" s="73">
         <v>0</v>
       </c>
     </row>
@@ -2304,46 +2304,46 @@
       <c r="AK9" s="17">
         <v>0</v>
       </c>
-      <c r="AL9" s="127"/>
+      <c r="AL9" s="161"/>
       <c r="AM9" s="17"/>
-      <c r="AN9" s="149">
+      <c r="AN9" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="130"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="103"/>
       <c r="W10" s="37"/>
       <c r="X10" s="37"/>
-      <c r="Y10" s="92" t="s">
+      <c r="Y10" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="103"/>
       <c r="AG10" s="11"/>
       <c r="AJ10" s="33" t="s">
         <v>30</v>
@@ -2355,7 +2355,7 @@
         <v>4</v>
       </c>
       <c r="AM10" s="18"/>
-      <c r="AN10" s="150"/>
+      <c r="AN10" s="76"/>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
@@ -2383,18 +2383,18 @@
       <c r="X11" s="37"/>
       <c r="Y11" s="39"/>
       <c r="Z11" s="40"/>
-      <c r="AA11" s="75" t="s">
+      <c r="AA11" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="79" t="s">
+      <c r="AB11" s="117"/>
+      <c r="AC11" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="AD11" s="80"/>
-      <c r="AE11" s="83" t="s">
+      <c r="AD11" s="113"/>
+      <c r="AE11" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="AF11" s="84"/>
+      <c r="AF11" s="109"/>
       <c r="AG11" s="11"/>
       <c r="AJ11" s="34" t="s">
         <v>31</v>
@@ -2406,7 +2406,7 @@
         <v>4</v>
       </c>
       <c r="AM11" s="16"/>
-      <c r="AN11" s="148"/>
+      <c r="AN11" s="74"/>
     </row>
     <row r="12" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
@@ -2434,12 +2434,12 @@
       <c r="X12" s="37"/>
       <c r="Y12" s="43"/>
       <c r="Z12" s="44"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="86"/>
+      <c r="AA12" s="118"/>
+      <c r="AB12" s="119"/>
+      <c r="AC12" s="114"/>
+      <c r="AD12" s="115"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="111"/>
       <c r="AG12" s="11"/>
       <c r="AJ12" s="10" t="s">
         <v>24</v>
@@ -2451,7 +2451,7 @@
         <v>4</v>
       </c>
       <c r="AM12" s="17"/>
-      <c r="AN12" s="149"/>
+      <c r="AN12" s="75"/>
     </row>
     <row r="13" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
@@ -2477,22 +2477,22 @@
       <c r="V13" s="66"/>
       <c r="W13" s="37"/>
       <c r="X13" s="37"/>
-      <c r="Y13" s="71" t="s">
+      <c r="Y13" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="75" t="s">
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="79" t="s">
+      <c r="AB13" s="117"/>
+      <c r="AC13" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="80"/>
-      <c r="AE13" s="83" t="s">
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="AF13" s="84"/>
+      <c r="AF13" s="109"/>
       <c r="AG13" s="11"/>
       <c r="AJ13" s="32" t="s">
         <v>52</v>
@@ -2504,7 +2504,7 @@
         <v>3</v>
       </c>
       <c r="AM13" s="19"/>
-      <c r="AN13" s="151">
+      <c r="AN13" s="77">
         <v>0</v>
       </c>
     </row>
@@ -2532,14 +2532,14 @@
       <c r="V14" s="70"/>
       <c r="W14" s="37"/>
       <c r="X14" s="37"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="81"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="85"/>
-      <c r="AF14" s="86"/>
+      <c r="Y14" s="106"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="118"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="114"/>
+      <c r="AD14" s="115"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="111"/>
       <c r="AG14" s="11"/>
       <c r="AJ14" s="8" t="s">
         <v>47</v>
@@ -2551,42 +2551,42 @@
         <v>4</v>
       </c>
       <c r="AM14" s="18"/>
-      <c r="AN14" s="150"/>
+      <c r="AN14" s="76"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="100"/>
+      <c r="T15" s="100"/>
+      <c r="U15" s="100"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="37"/>
       <c r="X15" s="37"/>
-      <c r="Y15" s="93" t="s">
+      <c r="Y15" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="93"/>
+      <c r="Z15" s="100"/>
+      <c r="AA15" s="100"/>
+      <c r="AB15" s="100"/>
+      <c r="AC15" s="100"/>
+      <c r="AD15" s="100"/>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="100"/>
       <c r="AG15" s="11"/>
       <c r="AJ15" s="4" t="s">
         <v>46</v>
@@ -2598,7 +2598,7 @@
         <v>3</v>
       </c>
       <c r="AM15" s="16"/>
-      <c r="AN15" s="148"/>
+      <c r="AN15" s="74"/>
     </row>
     <row r="16" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AJ16" s="20" t="s">
@@ -2625,46 +2625,46 @@
       <c r="AN17" s="25"/>
     </row>
     <row r="18" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N18" s="133"/>
-      <c r="O18" s="152" t="s">
+      <c r="N18" s="71"/>
+      <c r="O18" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="153"/>
-      <c r="T18" s="154"/>
-      <c r="U18" s="155" t="s">
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="V18" s="156"/>
-      <c r="W18" s="156"/>
-      <c r="X18" s="157"/>
-      <c r="Y18" s="137"/>
-      <c r="Z18" s="142"/>
-      <c r="AA18" s="142"/>
-      <c r="AB18" s="138"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="84"/>
     </row>
     <row r="19" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N19" s="133"/>
-      <c r="O19" s="143" t="s">
+      <c r="N19" s="71"/>
+      <c r="O19" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="144"/>
-      <c r="Q19" s="144"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="144"/>
-      <c r="T19" s="145"/>
-      <c r="U19" s="139" t="s">
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="V19" s="140"/>
-      <c r="W19" s="140"/>
-      <c r="X19" s="141"/>
-      <c r="Y19" s="133"/>
-      <c r="Z19" s="133"/>
-      <c r="AA19" s="133"/>
-      <c r="AB19" s="133"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
       <c r="AK19" s="1">
         <v>4</v>
       </c>
@@ -2683,21 +2683,21 @@
       </c>
     </row>
     <row r="20" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N20" s="133"/>
-      <c r="O20" s="133"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="133"/>
-      <c r="R20" s="133"/>
-      <c r="S20" s="133"/>
-      <c r="T20" s="133"/>
-      <c r="U20" s="133"/>
-      <c r="V20" s="133"/>
-      <c r="W20" s="133"/>
-      <c r="X20" s="133"/>
-      <c r="Y20" s="133"/>
-      <c r="Z20" s="133"/>
-      <c r="AA20" s="133"/>
-      <c r="AB20" s="133"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
       <c r="AK20" s="5">
         <v>4</v>
       </c>
@@ -2716,21 +2716,21 @@
       </c>
     </row>
     <row r="21" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N21" s="133"/>
-      <c r="O21" s="133"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="133"/>
-      <c r="R21" s="133"/>
-      <c r="S21" s="133"/>
-      <c r="T21" s="133"/>
-      <c r="U21" s="133"/>
-      <c r="V21" s="133"/>
-      <c r="W21" s="133"/>
-      <c r="X21" s="133"/>
-      <c r="Y21" s="133"/>
-      <c r="Z21" s="133"/>
-      <c r="AA21" s="133"/>
-      <c r="AB21" s="133"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
       <c r="AK21" s="26"/>
       <c r="AL21" s="27"/>
       <c r="AM21" s="27"/>
@@ -2741,120 +2741,120 @@
       </c>
     </row>
     <row r="22" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N22" s="133"/>
-      <c r="O22" s="133"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="133"/>
-      <c r="R22" s="133"/>
-      <c r="S22" s="133"/>
-      <c r="T22" s="133"/>
-      <c r="U22" s="133"/>
-      <c r="V22" s="133"/>
-      <c r="W22" s="133"/>
-      <c r="X22" s="133"/>
-      <c r="Y22" s="133"/>
-      <c r="Z22" s="133"/>
-      <c r="AA22" s="133"/>
-      <c r="AB22" s="133"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
     </row>
     <row r="23" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N23" s="133"/>
-      <c r="O23" s="133"/>
-      <c r="P23" s="133"/>
-      <c r="Q23" s="133"/>
-      <c r="R23" s="133"/>
-      <c r="S23" s="133"/>
-      <c r="T23" s="133"/>
-      <c r="U23" s="133"/>
-      <c r="V23" s="133"/>
-      <c r="W23" s="133"/>
-      <c r="X23" s="133"/>
-      <c r="Y23" s="133"/>
-      <c r="Z23" s="133"/>
-      <c r="AA23" s="133"/>
-      <c r="AB23" s="133"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
     </row>
     <row r="24" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N24" s="133"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="133"/>
-      <c r="R24" s="133"/>
-      <c r="S24" s="133"/>
-      <c r="T24" s="133"/>
-      <c r="U24" s="133"/>
-      <c r="V24" s="133"/>
-      <c r="W24" s="133"/>
-      <c r="X24" s="133"/>
-      <c r="Y24" s="133"/>
-      <c r="Z24" s="133"/>
-      <c r="AA24" s="133"/>
-      <c r="AB24" s="133"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
     </row>
     <row r="25" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N25" s="133"/>
-      <c r="O25" s="159" t="s">
+      <c r="N25" s="71"/>
+      <c r="O25" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="160"/>
-      <c r="R25" s="160"/>
-      <c r="S25" s="160"/>
-      <c r="T25" s="160"/>
-      <c r="U25" s="160"/>
-      <c r="V25" s="161"/>
-      <c r="W25" s="137" t="s">
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="X25" s="142"/>
-      <c r="Y25" s="142"/>
-      <c r="Z25" s="138"/>
-      <c r="AA25" s="133"/>
-      <c r="AB25" s="133"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="83"/>
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
     </row>
     <row r="26" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N26" s="133"/>
-      <c r="O26" s="134" t="s">
+      <c r="N26" s="71"/>
+      <c r="O26" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="135"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="136"/>
-      <c r="U26" s="137" t="s">
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="V26" s="142"/>
-      <c r="W26" s="142"/>
-      <c r="X26" s="142"/>
-      <c r="Y26" s="142"/>
-      <c r="Z26" s="138"/>
-      <c r="AA26" s="133"/>
-      <c r="AB26" s="133"/>
+      <c r="V26" s="83"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="83"/>
+      <c r="Z26" s="84"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="O25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="O26:T26"/>
-    <mergeCell ref="U26:Z26"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="Y7:AF7"/>
-    <mergeCell ref="Y10:AF10"/>
-    <mergeCell ref="Y3:Z4"/>
-    <mergeCell ref="Y5:Z6"/>
-    <mergeCell ref="AE5:AF6"/>
-    <mergeCell ref="AC3:AD4"/>
-    <mergeCell ref="AC5:AD6"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="AA5:AB6"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="AC13:AD14"/>
+    <mergeCell ref="AE13:AF14"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="AC11:AD12"/>
+    <mergeCell ref="AE11:AF12"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="Q2:V2"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="Q3:R4"/>
     <mergeCell ref="Q5:R6"/>
@@ -2867,26 +2867,26 @@
     <mergeCell ref="Q7:V7"/>
     <mergeCell ref="I10:N10"/>
     <mergeCell ref="I15:N15"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="AC13:AD14"/>
-    <mergeCell ref="AE13:AF14"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AA11:AB12"/>
-    <mergeCell ref="AC11:AD12"/>
-    <mergeCell ref="AE11:AF12"/>
-    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="Y7:AF7"/>
+    <mergeCell ref="Y10:AF10"/>
+    <mergeCell ref="Y3:Z4"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="AE5:AF6"/>
+    <mergeCell ref="AC3:AD4"/>
+    <mergeCell ref="AC5:AD6"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="AA5:AB6"/>
+    <mergeCell ref="O25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="O26:T26"/>
+    <mergeCell ref="U26:Z26"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="U19:X19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/old/temp01/pin2.xlsx
+++ b/old/temp01/pin2.xlsx
@@ -1080,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1104,19 +1104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
@@ -1266,6 +1254,231 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1275,15 +1488,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1311,208 +1515,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1879,7 +1882,7 @@
   <dimension ref="B1:AO26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AG25" sqref="AG25"/>
+      <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1894,42 +1897,42 @@
     <row r="1" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="140" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="156" t="s">
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="101" t="s">
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="139"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="139"/>
       <c r="AG2" s="11"/>
       <c r="AJ2" s="9" t="s">
         <v>23</v>
@@ -1947,56 +1950,56 @@
     </row>
     <row r="3" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="146" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="130" t="s">
+      <c r="F3" s="109"/>
+      <c r="G3" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="131"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="120" t="s">
+      <c r="H3" s="113"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="121"/>
-      <c r="S3" s="108" t="s">
+      <c r="R3" s="126"/>
+      <c r="S3" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="128"/>
-      <c r="U3" s="130" t="s">
+      <c r="T3" s="109"/>
+      <c r="U3" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="131"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="104" t="s">
+      <c r="V3" s="113"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="116" t="s">
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="112" t="s">
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="108" t="s">
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="109"/>
+      <c r="AF3" s="92"/>
       <c r="AG3" s="11"/>
-      <c r="AJ3" s="78" t="s">
+      <c r="AJ3" s="74" t="s">
         <v>49</v>
       </c>
       <c r="AK3" s="14">
@@ -2008,853 +2011,873 @@
       <c r="AM3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AN3" s="72">
+      <c r="AN3" s="68">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="133"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="111"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="94"/>
       <c r="AG4" s="11"/>
-      <c r="AJ4" s="29" t="s">
+      <c r="AJ4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AK4" s="15">
+      <c r="AK4" s="75">
         <v>0</v>
       </c>
-      <c r="AL4" s="157">
+      <c r="AL4" s="95">
         <v>3</v>
       </c>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="73">
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="148" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="149"/>
-      <c r="G5" s="152" t="s">
+      <c r="F5" s="117"/>
+      <c r="G5" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="153"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="124" t="s">
+      <c r="H5" s="121"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="125"/>
-      <c r="S5" s="142" t="s">
+      <c r="R5" s="130"/>
+      <c r="S5" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="143"/>
-      <c r="U5" s="134" t="s">
+      <c r="T5" s="105"/>
+      <c r="U5" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="135"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="104" t="s">
+      <c r="V5" s="134"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="116" t="s">
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="AB5" s="117"/>
-      <c r="AC5" s="112" t="s">
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="108" t="s">
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="AF5" s="109"/>
+      <c r="AF5" s="92"/>
       <c r="AG5" s="11"/>
-      <c r="AJ5" s="30" t="s">
+      <c r="AJ5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AK5" s="16">
+      <c r="AK5" s="76">
         <v>0</v>
       </c>
-      <c r="AL5" s="158"/>
-      <c r="AM5" s="16"/>
-      <c r="AN5" s="74">
+      <c r="AL5" s="96"/>
+      <c r="AM5" s="76"/>
+      <c r="AN5" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="145"/>
-      <c r="U6" s="136"/>
-      <c r="V6" s="137"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="107"/>
-      <c r="AA6" s="118"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="115"/>
-      <c r="AE6" s="110"/>
-      <c r="AF6" s="111"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="136"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="94"/>
       <c r="AG6" s="11"/>
-      <c r="AJ6" s="30" t="s">
+      <c r="AJ6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AK6" s="16">
+      <c r="AK6" s="76">
         <v>0</v>
       </c>
-      <c r="AL6" s="158"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="74">
+      <c r="AL6" s="96"/>
+      <c r="AM6" s="76"/>
+      <c r="AN6" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="141" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="138" t="s">
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="102" t="s">
+      <c r="R7" s="137"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="137"/>
+      <c r="U7" s="137"/>
+      <c r="V7" s="137"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="102"/>
-      <c r="AA7" s="102"/>
-      <c r="AB7" s="102"/>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="102"/>
-      <c r="AE7" s="102"/>
-      <c r="AF7" s="102"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
+      <c r="AB7" s="140"/>
+      <c r="AC7" s="140"/>
+      <c r="AD7" s="140"/>
+      <c r="AE7" s="140"/>
+      <c r="AF7" s="140"/>
       <c r="AG7" s="11"/>
-      <c r="AJ7" s="31" t="s">
+      <c r="AJ7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AK7" s="17">
+      <c r="AK7" s="77">
         <v>0</v>
       </c>
-      <c r="AL7" s="159"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="75">
+      <c r="AL7" s="97"/>
+      <c r="AM7" s="77"/>
+      <c r="AN7" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:40" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
       <c r="AG8" s="11"/>
-      <c r="AJ8" s="35" t="s">
+      <c r="AJ8" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="AK8" s="15">
+      <c r="AK8" s="75">
         <v>0</v>
       </c>
-      <c r="AL8" s="160">
+      <c r="AL8" s="98">
         <v>4</v>
       </c>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="73">
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
       <c r="AG9" s="11"/>
-      <c r="AJ9" s="36" t="s">
+      <c r="AJ9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AK9" s="17">
+      <c r="AK9" s="77">
         <v>0</v>
       </c>
-      <c r="AL9" s="161"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="75">
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="139"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="103" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="Z10" s="103"/>
-      <c r="AA10" s="103"/>
-      <c r="AB10" s="103"/>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="103"/>
-      <c r="AF10" s="103"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="102"/>
       <c r="AG10" s="11"/>
-      <c r="AJ10" s="33" t="s">
+      <c r="AJ10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AK10" s="18">
+      <c r="AK10" s="15">
         <v>0</v>
       </c>
-      <c r="AL10" s="18">
+      <c r="AL10" s="15">
         <v>4</v>
       </c>
-      <c r="AM10" s="18"/>
-      <c r="AN10" s="76"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="72"/>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="116" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="AB11" s="117"/>
-      <c r="AC11" s="112" t="s">
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="AD11" s="113"/>
-      <c r="AE11" s="108" t="s">
+      <c r="AD11" s="88"/>
+      <c r="AE11" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="AF11" s="109"/>
+      <c r="AF11" s="92"/>
       <c r="AG11" s="11"/>
-      <c r="AJ11" s="34" t="s">
+      <c r="AJ11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AK11" s="16">
+      <c r="AK11" s="76">
         <v>0</v>
       </c>
-      <c r="AL11" s="16">
+      <c r="AL11" s="76">
         <v>4</v>
       </c>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="74"/>
+      <c r="AM11" s="76"/>
+      <c r="AN11" s="70"/>
     </row>
     <row r="12" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="118"/>
-      <c r="AB12" s="119"/>
-      <c r="AC12" s="114"/>
-      <c r="AD12" s="115"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="111"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="90"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="94"/>
       <c r="AG12" s="11"/>
       <c r="AJ12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AK12" s="17">
+      <c r="AK12" s="77">
         <v>0</v>
       </c>
-      <c r="AL12" s="17">
+      <c r="AL12" s="77">
         <v>4</v>
       </c>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="75"/>
+      <c r="AM12" s="77"/>
+      <c r="AN12" s="71"/>
     </row>
     <row r="13" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="104" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="Z13" s="105"/>
-      <c r="AA13" s="116" t="s">
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="112" t="s">
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="113"/>
-      <c r="AE13" s="108" t="s">
+      <c r="AD13" s="88"/>
+      <c r="AE13" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="AF13" s="109"/>
+      <c r="AF13" s="92"/>
       <c r="AG13" s="11"/>
-      <c r="AJ13" s="32" t="s">
+      <c r="AJ13" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AK13" s="19">
+      <c r="AK13" s="78">
         <v>0</v>
       </c>
-      <c r="AL13" s="19">
+      <c r="AL13" s="78">
         <v>3</v>
       </c>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="77">
+      <c r="AM13" s="78"/>
+      <c r="AN13" s="73">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="118"/>
-      <c r="AB14" s="119"/>
-      <c r="AC14" s="114"/>
-      <c r="AD14" s="115"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="111"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="94"/>
       <c r="AG14" s="11"/>
       <c r="AJ14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AK14" s="18">
+      <c r="AK14" s="15">
         <v>0</v>
       </c>
-      <c r="AL14" s="18">
+      <c r="AL14" s="15">
         <v>4</v>
       </c>
-      <c r="AM14" s="18"/>
-      <c r="AN14" s="76"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="72"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="100"/>
-      <c r="U15" s="100"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="100" t="s">
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="Z15" s="100"/>
-      <c r="AA15" s="100"/>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="100"/>
-      <c r="AD15" s="100"/>
-      <c r="AE15" s="100"/>
-      <c r="AF15" s="100"/>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="103"/>
       <c r="AG15" s="11"/>
       <c r="AJ15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AK15" s="16">
+      <c r="AK15" s="76">
         <v>0</v>
       </c>
-      <c r="AL15" s="16">
+      <c r="AL15" s="76">
         <v>3</v>
       </c>
-      <c r="AM15" s="16"/>
-      <c r="AN15" s="74"/>
-    </row>
-    <row r="16" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AJ16" s="20" t="s">
+      <c r="AM15" s="76"/>
+      <c r="AN15" s="70"/>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AJ16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21">
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17">
         <v>2</v>
       </c>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="22"/>
-    </row>
-    <row r="17" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="24">
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="18"/>
+    </row>
+    <row r="17" spans="14:41" x14ac:dyDescent="0.2">
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="162"/>
+    </row>
+    <row r="18" spans="14:41" x14ac:dyDescent="0.2">
+      <c r="N18" s="67"/>
+      <c r="O18" s="153" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="155"/>
+      <c r="U18" s="150" t="s">
+        <v>61</v>
+      </c>
+      <c r="V18" s="151"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="152"/>
+      <c r="Y18" s="144"/>
+      <c r="Z18" s="145"/>
+      <c r="AA18" s="145"/>
+      <c r="AB18" s="146"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="76"/>
+      <c r="AL18" s="76"/>
+      <c r="AM18" s="76"/>
+      <c r="AN18" s="162"/>
+    </row>
+    <row r="19" spans="14:41" x14ac:dyDescent="0.2">
+      <c r="N19" s="67"/>
+      <c r="O19" s="156" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="157"/>
+      <c r="S19" s="157"/>
+      <c r="T19" s="158"/>
+      <c r="U19" s="159" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" s="160"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="161"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="76"/>
+      <c r="AL19" s="76"/>
+      <c r="AM19" s="76"/>
+      <c r="AN19" s="162"/>
+    </row>
+    <row r="20" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="67"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="18"/>
+    </row>
+    <row r="21" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="67"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="20">
         <f>SUM(AK2:AK16)</f>
         <v>11</v>
       </c>
-      <c r="AL17" s="24">
+      <c r="AL21" s="20">
         <f>SUM(AL2:AL16)</f>
         <v>31</v>
       </c>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="25"/>
-    </row>
-    <row r="18" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N18" s="71"/>
-      <c r="O18" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="V18" s="80"/>
-      <c r="W18" s="80"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="84"/>
-    </row>
-    <row r="19" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N19" s="71"/>
-      <c r="O19" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="71"/>
-      <c r="AK19" s="1">
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="21"/>
+    </row>
+    <row r="22" spans="14:41" x14ac:dyDescent="0.2">
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="67"/>
+    </row>
+    <row r="23" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="67"/>
+    </row>
+    <row r="24" spans="14:41" x14ac:dyDescent="0.2">
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="67"/>
+      <c r="AK24" s="1">
         <v>4</v>
       </c>
-      <c r="AL19" s="2">
+      <c r="AL24" s="2">
         <v>4</v>
       </c>
-      <c r="AM19" s="2">
+      <c r="AM24" s="2">
         <v>6</v>
       </c>
-      <c r="AN19" s="2">
+      <c r="AN24" s="2">
         <v>8</v>
       </c>
-      <c r="AO19" s="3">
-        <f>SUM(AK19:AN19)</f>
+      <c r="AO24" s="3">
+        <f>SUM(AK24:AN24)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AK20" s="5">
+    <row r="25" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="67"/>
+      <c r="O25" s="141" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25" s="142"/>
+      <c r="Q25" s="142"/>
+      <c r="R25" s="142"/>
+      <c r="S25" s="142"/>
+      <c r="T25" s="142"/>
+      <c r="U25" s="142"/>
+      <c r="V25" s="143"/>
+      <c r="W25" s="144" t="s">
+        <v>62</v>
+      </c>
+      <c r="X25" s="145"/>
+      <c r="Y25" s="145"/>
+      <c r="Z25" s="146"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="67"/>
+      <c r="AK25" s="5">
         <v>4</v>
       </c>
-      <c r="AL20" s="6">
+      <c r="AL25" s="6">
         <v>6</v>
       </c>
-      <c r="AM20" s="6">
+      <c r="AM25" s="6">
         <v>6</v>
       </c>
-      <c r="AN20" s="6">
+      <c r="AN25" s="6">
         <v>8</v>
       </c>
-      <c r="AO20" s="7">
-        <f>SUM(AK20:AN20)</f>
+      <c r="AO25" s="7">
+        <f>SUM(AK25:AN25)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AK21" s="26"/>
-      <c r="AL21" s="27"/>
-      <c r="AM21" s="27"/>
-      <c r="AN21" s="27"/>
-      <c r="AO21" s="28">
-        <f>SUM(AO19:AO20)</f>
+    <row r="26" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="67"/>
+      <c r="O26" s="147" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="148"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="148"/>
+      <c r="S26" s="148"/>
+      <c r="T26" s="149"/>
+      <c r="U26" s="144" t="s">
+        <v>58</v>
+      </c>
+      <c r="V26" s="145"/>
+      <c r="W26" s="145"/>
+      <c r="X26" s="145"/>
+      <c r="Y26" s="145"/>
+      <c r="Z26" s="146"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="67"/>
+      <c r="AK26" s="22"/>
+      <c r="AL26" s="23"/>
+      <c r="AM26" s="23"/>
+      <c r="AN26" s="23"/>
+      <c r="AO26" s="24">
+        <f>SUM(AO24:AO25)</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-    </row>
-    <row r="23" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-    </row>
-    <row r="24" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
-    </row>
-    <row r="25" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N25" s="71"/>
-      <c r="O25" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="X25" s="83"/>
-      <c r="Y25" s="83"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="71"/>
-    </row>
-    <row r="26" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N26" s="71"/>
-      <c r="O26" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="V26" s="83"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="83"/>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="AC13:AD14"/>
-    <mergeCell ref="AE13:AF14"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AA11:AB12"/>
-    <mergeCell ref="AC11:AD12"/>
-    <mergeCell ref="AE11:AF12"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="O25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="O26:T26"/>
+    <mergeCell ref="U26:Z26"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="Y7:AF7"/>
+    <mergeCell ref="Y10:AF10"/>
+    <mergeCell ref="Y3:Z4"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="AE5:AF6"/>
+    <mergeCell ref="AC3:AD4"/>
+    <mergeCell ref="AC5:AD6"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="AA5:AB6"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="Q3:R4"/>
     <mergeCell ref="Q5:R6"/>
@@ -2867,26 +2890,26 @@
     <mergeCell ref="Q7:V7"/>
     <mergeCell ref="I10:N10"/>
     <mergeCell ref="I15:N15"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="Y7:AF7"/>
-    <mergeCell ref="Y10:AF10"/>
-    <mergeCell ref="Y3:Z4"/>
-    <mergeCell ref="Y5:Z6"/>
-    <mergeCell ref="AE5:AF6"/>
-    <mergeCell ref="AC3:AD4"/>
-    <mergeCell ref="AC5:AD6"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="AA5:AB6"/>
-    <mergeCell ref="O25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="O26:T26"/>
-    <mergeCell ref="U26:Z26"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="AC13:AD14"/>
+    <mergeCell ref="AE13:AF14"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="AC11:AD12"/>
+    <mergeCell ref="AE11:AF12"/>
+    <mergeCell ref="AL8:AL9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/old/temp01/pin2.xlsx
+++ b/old/temp01/pin2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>attachInterrupt(interrupt, function, mode)</t>
   </si>
@@ -189,63 +189,104 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>BME280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BME280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DS18B20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEN0217</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEN0217</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeoPixel-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeoPixel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDC-Pump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D5Pump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D5Pump</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAN-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAN-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAN-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+5V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Out-FAN</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BME280</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BME280</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DS18B20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEN0217</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEN0217</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NeoPixel-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NeoPixel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DDC-Pump</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D5Pump</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D5Pump</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FAN-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FAN-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FAN-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DDC</t>
+    <t>Out-FAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PumpRelay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PumpRelay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>液晶</t>
+    <rPh sb="0" eb="2">
+      <t>エキショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>液晶電源</t>
+    <rPh sb="0" eb="2">
+      <t>エキショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボリューム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Relay</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -253,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,8 +337,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,8 +402,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="56">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1076,11 +1150,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1089,7 +1192,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1266,190 +1368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1479,6 +1398,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1515,8 +1437,240 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1882,897 +2036,926 @@
   <dimension ref="B1:AO26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="35" width="2.26953125" customWidth="1"/>
     <col min="36" max="36" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="3.7265625" style="11" customWidth="1"/>
+    <col min="37" max="40" width="3.7265625" style="10" customWidth="1"/>
     <col min="41" max="41" width="3.7265625" customWidth="1"/>
     <col min="42" max="56" width="2.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="124" t="s">
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="139" t="s">
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="139"/>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="11"/>
-      <c r="AJ2" s="9" t="s">
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="10"/>
+      <c r="AJ2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="12">
+      <c r="AK2" s="11">
         <v>7</v>
       </c>
-      <c r="AL2" s="12">
+      <c r="AL2" s="11">
         <v>0</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AM2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AN2" s="13"/>
+      <c r="AN2" s="12"/>
     </row>
     <row r="3" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="108" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="112" t="s">
+      <c r="F3" s="128"/>
+      <c r="G3" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="163"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="168" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="163"/>
+      <c r="M3" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="163"/>
+      <c r="O3" s="166" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="120" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="121"/>
+      <c r="S3" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="128"/>
+      <c r="U3" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="125" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="126"/>
-      <c r="S3" s="91" t="s">
+      <c r="V3" s="131"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="109"/>
-      <c r="U3" s="112" t="s">
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="10"/>
+      <c r="AJ3" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK3" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN3" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="10"/>
+      <c r="AJ4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK4" s="74">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="157">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="10"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="148" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="149"/>
+      <c r="G5" s="152" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="153"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="142" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="143"/>
+      <c r="M5" s="142" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="143"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="125"/>
+      <c r="S5" s="142" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="143"/>
+      <c r="U5" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="113"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="79" t="s">
+      <c r="V5" s="135"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="83" t="s">
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="87" t="s">
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="91" t="s">
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="92"/>
-      <c r="AG3" s="11"/>
-      <c r="AJ3" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK3" s="14">
+      <c r="AF5" s="109"/>
+      <c r="AG5" s="10"/>
+      <c r="AJ5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK5" s="75">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="158"/>
+      <c r="AM5" s="75"/>
+      <c r="AN5" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="144"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="136"/>
+      <c r="V6" s="137"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="118"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="115"/>
+      <c r="AE6" s="110"/>
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="10"/>
+      <c r="AJ6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK6" s="75">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="158"/>
+      <c r="AM6" s="75"/>
+      <c r="AN6" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="138"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="138"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="10"/>
+      <c r="AJ7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK7" s="76">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="159"/>
+      <c r="AM7" s="76"/>
+      <c r="AN7" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="10"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="10"/>
+      <c r="AJ8" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK8" s="74">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="160">
         <v>4</v>
       </c>
-      <c r="AL3" s="14">
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="68">
         <v>0</v>
       </c>
-      <c r="AM3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN3" s="68">
+    </row>
+    <row r="9" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="10"/>
+      <c r="AJ9" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK9" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="11"/>
-      <c r="AJ4" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK4" s="75">
+      <c r="AL9" s="161"/>
+      <c r="AM9" s="76"/>
+      <c r="AN9" s="70">
         <v>0</v>
       </c>
-      <c r="AL4" s="95">
+    </row>
+    <row r="10" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="170" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" s="170"/>
+      <c r="AA10" s="170"/>
+      <c r="AB10" s="170"/>
+      <c r="AC10" s="170"/>
+      <c r="AD10" s="170"/>
+      <c r="AE10" s="170"/>
+      <c r="AF10" s="170"/>
+      <c r="AG10" s="10"/>
+      <c r="AJ10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="14">
+        <v>4</v>
+      </c>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="71"/>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB11" s="117"/>
+      <c r="AC11" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD11" s="113"/>
+      <c r="AE11" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF11" s="109"/>
+      <c r="AG11" s="10"/>
+      <c r="AJ11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK11" s="75">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="75">
+        <v>4</v>
+      </c>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="69"/>
+    </row>
+    <row r="12" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="118"/>
+      <c r="AB12" s="119"/>
+      <c r="AC12" s="114"/>
+      <c r="AD12" s="115"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="111"/>
+      <c r="AG12" s="10"/>
+      <c r="AJ12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK12" s="76">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="76">
+        <v>4</v>
+      </c>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="70"/>
+    </row>
+    <row r="13" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB13" s="117"/>
+      <c r="AC13" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF13" s="109"/>
+      <c r="AG13" s="10"/>
+      <c r="AJ13" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK13" s="77">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="77">
         <v>3</v>
       </c>
-      <c r="AM4" s="75"/>
-      <c r="AN4" s="69">
+      <c r="AM13" s="77"/>
+      <c r="AN13" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="116" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="120" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="121"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="129" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" s="130"/>
-      <c r="S5" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="105"/>
-      <c r="U5" s="133" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" s="134"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="11"/>
-      <c r="AJ5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK5" s="76">
+    <row r="14" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="106"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="118"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="114"/>
+      <c r="AD14" s="115"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="111"/>
+      <c r="AG14" s="10"/>
+      <c r="AJ14" s="172" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK14" s="14">
         <v>0</v>
       </c>
-      <c r="AL5" s="96"/>
-      <c r="AM5" s="76"/>
-      <c r="AN5" s="70">
+      <c r="AL14" s="14">
+        <v>4</v>
+      </c>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="71"/>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="171" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z15" s="171"/>
+      <c r="AA15" s="171"/>
+      <c r="AB15" s="171"/>
+      <c r="AC15" s="171"/>
+      <c r="AD15" s="171"/>
+      <c r="AE15" s="171"/>
+      <c r="AF15" s="171"/>
+      <c r="AG15" s="10"/>
+      <c r="AJ15" s="173" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK15" s="75">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="136"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="89"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="93"/>
-      <c r="AF6" s="94"/>
-      <c r="AG6" s="11"/>
-      <c r="AJ6" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK6" s="76">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="96"/>
-      <c r="AM6" s="76"/>
-      <c r="AN6" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="137"/>
-      <c r="S7" s="137"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="137"/>
-      <c r="V7" s="137"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="140" t="s">
+      <c r="AL15" s="75">
+        <v>3</v>
+      </c>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="69"/>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AJ16" s="167" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="17"/>
+    </row>
+    <row r="17" spans="14:41" x14ac:dyDescent="0.2">
+      <c r="AJ17" s="169" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK17" s="75"/>
+      <c r="AL17" s="75"/>
+      <c r="AM17" s="75"/>
+      <c r="AN17" s="78"/>
+    </row>
+    <row r="18" spans="14:41" x14ac:dyDescent="0.2">
+      <c r="N18" s="66"/>
+      <c r="O18" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="140"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
-      <c r="AD7" s="140"/>
-      <c r="AE7" s="140"/>
-      <c r="AF7" s="140"/>
-      <c r="AG7" s="11"/>
-      <c r="AJ7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK7" s="77">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="97"/>
-      <c r="AM7" s="77"/>
-      <c r="AN7" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:40" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="11"/>
-      <c r="AJ8" s="31" t="s">
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="84"/>
+      <c r="AD18" s="174" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE18" s="174" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="78"/>
+    </row>
+    <row r="19" spans="14:41" x14ac:dyDescent="0.2">
+      <c r="N19" s="66"/>
+      <c r="O19" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="AK8" s="75">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="98">
-        <v>4</v>
-      </c>
-      <c r="AM8" s="75"/>
-      <c r="AN8" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="11"/>
-      <c r="AJ9" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK9" s="77">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="99"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="11"/>
-      <c r="AJ10" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="15">
-        <v>4</v>
-      </c>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="72"/>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD11" s="88"/>
-      <c r="AE11" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="11"/>
-      <c r="AJ11" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK11" s="76">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="76">
-        <v>4</v>
-      </c>
-      <c r="AM11" s="76"/>
-      <c r="AN11" s="70"/>
-    </row>
-    <row r="12" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="94"/>
-      <c r="AG12" s="11"/>
-      <c r="AJ12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK12" s="77">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="77">
-        <v>4</v>
-      </c>
-      <c r="AM12" s="77"/>
-      <c r="AN12" s="71"/>
-    </row>
-    <row r="13" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD13" s="88"/>
-      <c r="AE13" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="11"/>
-      <c r="AJ13" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK13" s="78">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="78">
-        <v>3</v>
-      </c>
-      <c r="AM13" s="78"/>
-      <c r="AN13" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="11"/>
-      <c r="AJ14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="15">
-        <v>4</v>
-      </c>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="72"/>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B15" s="11"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
-      <c r="T15" s="103"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="103"/>
-      <c r="AG15" s="11"/>
-      <c r="AJ15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK15" s="76">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="76">
-        <v>3</v>
-      </c>
-      <c r="AM15" s="76"/>
-      <c r="AN15" s="70"/>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="AJ16" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17">
-        <v>2</v>
-      </c>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="18"/>
-    </row>
-    <row r="17" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="76"/>
-      <c r="AL17" s="76"/>
-      <c r="AM17" s="76"/>
-      <c r="AN17" s="162"/>
-    </row>
-    <row r="18" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N18" s="67"/>
-      <c r="O18" s="153" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="154"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="150" t="s">
-        <v>61</v>
-      </c>
-      <c r="V18" s="151"/>
-      <c r="W18" s="151"/>
-      <c r="X18" s="152"/>
-      <c r="Y18" s="144"/>
-      <c r="Z18" s="145"/>
-      <c r="AA18" s="145"/>
-      <c r="AB18" s="146"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="76"/>
-      <c r="AL18" s="76"/>
-      <c r="AM18" s="76"/>
-      <c r="AN18" s="162"/>
-    </row>
-    <row r="19" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N19" s="67"/>
-      <c r="O19" s="156" t="s">
-        <v>55</v>
-      </c>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="157"/>
-      <c r="S19" s="157"/>
-      <c r="T19" s="158"/>
-      <c r="U19" s="159" t="s">
-        <v>59</v>
-      </c>
-      <c r="V19" s="160"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="161"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="100"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AD19" s="175"/>
+      <c r="AE19" s="175"/>
       <c r="AJ19" s="4"/>
-      <c r="AK19" s="76"/>
-      <c r="AL19" s="76"/>
-      <c r="AM19" s="76"/>
-      <c r="AN19" s="162"/>
+      <c r="AK19" s="75"/>
+      <c r="AL19" s="75"/>
+      <c r="AM19" s="75"/>
+      <c r="AN19" s="78"/>
     </row>
     <row r="20" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="18"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AD20" s="176"/>
+      <c r="AE20" s="176"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="17"/>
     </row>
     <row r="21" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="67"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="67"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="20">
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="19">
         <f>SUM(AK2:AK16)</f>
         <v>11</v>
       </c>
-      <c r="AL21" s="20">
+      <c r="AL21" s="19">
         <f>SUM(AL2:AL16)</f>
         <v>31</v>
       </c>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="21"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="20"/>
     </row>
     <row r="22" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="67"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AE22" s="177" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="23" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="67"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AE23" s="178"/>
     </row>
     <row r="24" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="67"/>
-      <c r="AB24" s="67"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="66"/>
+      <c r="AE24" s="179"/>
       <c r="AK24" s="1">
         <v>4</v>
       </c>
@@ -2791,25 +2974,28 @@
       </c>
     </row>
     <row r="25" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N25" s="67"/>
-      <c r="O25" s="141" t="s">
-        <v>50</v>
-      </c>
-      <c r="P25" s="142"/>
-      <c r="Q25" s="142"/>
-      <c r="R25" s="142"/>
-      <c r="S25" s="142"/>
-      <c r="T25" s="142"/>
-      <c r="U25" s="142"/>
-      <c r="V25" s="143"/>
-      <c r="W25" s="144" t="s">
-        <v>62</v>
-      </c>
-      <c r="X25" s="145"/>
-      <c r="Y25" s="145"/>
-      <c r="Z25" s="146"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="67"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="81"/>
+      <c r="W25" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="83"/>
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="66"/>
+      <c r="AE25" s="180" t="s">
+        <v>68</v>
+      </c>
       <c r="AK25" s="5">
         <v>4</v>
       </c>
@@ -2828,56 +3014,63 @@
       </c>
     </row>
     <row r="26" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N26" s="67"/>
-      <c r="O26" s="147" t="s">
-        <v>51</v>
-      </c>
-      <c r="P26" s="148"/>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="148"/>
-      <c r="S26" s="148"/>
-      <c r="T26" s="149"/>
-      <c r="U26" s="144" t="s">
-        <v>58</v>
-      </c>
-      <c r="V26" s="145"/>
-      <c r="W26" s="145"/>
-      <c r="X26" s="145"/>
-      <c r="Y26" s="145"/>
-      <c r="Z26" s="146"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="67"/>
-      <c r="AK26" s="22"/>
-      <c r="AL26" s="23"/>
-      <c r="AM26" s="23"/>
-      <c r="AN26" s="23"/>
-      <c r="AO26" s="24">
+      <c r="N26" s="66"/>
+      <c r="O26" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="V26" s="83"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="83"/>
+      <c r="Z26" s="84"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AE26" s="181"/>
+      <c r="AK26" s="21"/>
+      <c r="AL26" s="22"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="23">
         <f>SUM(AO24:AO25)</f>
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="O25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="O26:T26"/>
-    <mergeCell ref="U26:Z26"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="Y7:AF7"/>
-    <mergeCell ref="Y10:AF10"/>
-    <mergeCell ref="Y3:Z4"/>
-    <mergeCell ref="Y5:Z6"/>
-    <mergeCell ref="AE5:AF6"/>
-    <mergeCell ref="AC3:AD4"/>
-    <mergeCell ref="AC5:AD6"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="AA5:AB6"/>
+  <mergeCells count="62">
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="AC13:AD14"/>
+    <mergeCell ref="AE13:AF14"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="AC11:AD12"/>
+    <mergeCell ref="AE11:AF12"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="K3:L4"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="Q3:R4"/>
     <mergeCell ref="Q5:R6"/>
@@ -2890,26 +3083,30 @@
     <mergeCell ref="Q7:V7"/>
     <mergeCell ref="I10:N10"/>
     <mergeCell ref="I15:N15"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="AC13:AD14"/>
-    <mergeCell ref="AE13:AF14"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AA11:AB12"/>
-    <mergeCell ref="AC11:AD12"/>
-    <mergeCell ref="AE11:AF12"/>
-    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="Y7:AF7"/>
+    <mergeCell ref="Y10:AF10"/>
+    <mergeCell ref="Y3:Z4"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="AE5:AF6"/>
+    <mergeCell ref="AC3:AD4"/>
+    <mergeCell ref="AC5:AD6"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="AA5:AB6"/>
+    <mergeCell ref="O25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="O26:T26"/>
+    <mergeCell ref="U26:Z26"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="AD18:AD20"/>
+    <mergeCell ref="AE18:AE20"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="AE22:AE24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/old/temp01/pin2.xlsx
+++ b/old/temp01/pin2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>attachInterrupt(interrupt, function, mode)</t>
   </si>
@@ -287,6 +287,10 @@
   </si>
   <si>
     <t>Relay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+3.3V</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1183,7 +1187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1371,6 +1375,217 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1398,7 +1613,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1437,217 +1652,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
@@ -1657,6 +1661,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -1666,11 +1676,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2036,7 +2052,7 @@
   <dimension ref="B1:AO26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+      <selection activeCell="I13" sqref="I13:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2053,40 +2069,40 @@
       <c r="B2" s="10"/>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
-      <c r="E2" s="140" t="s">
+      <c r="E2" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
       <c r="O2" s="33"/>
       <c r="P2" s="32"/>
-      <c r="Q2" s="156" t="s">
+      <c r="Q2" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
       <c r="W2" s="32"/>
       <c r="X2" s="32"/>
-      <c r="Y2" s="101" t="s">
+      <c r="Y2" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
       <c r="AG2" s="10"/>
       <c r="AJ2" s="8" t="s">
         <v>23</v>
@@ -2106,60 +2122,60 @@
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="162" t="s">
+      <c r="F3" s="113"/>
+      <c r="G3" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="163"/>
+      <c r="H3" s="117"/>
       <c r="I3" s="32"/>
-      <c r="J3" s="168" t="s">
+      <c r="J3" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="162" t="s">
+      <c r="K3" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="163"/>
-      <c r="M3" s="162" t="s">
+      <c r="L3" s="117"/>
+      <c r="M3" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="163"/>
-      <c r="O3" s="166" t="s">
+      <c r="N3" s="117"/>
+      <c r="O3" s="129" t="s">
         <v>64</v>
       </c>
       <c r="P3" s="32"/>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="121"/>
-      <c r="S3" s="108" t="s">
+      <c r="R3" s="132"/>
+      <c r="S3" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="128"/>
-      <c r="U3" s="130" t="s">
+      <c r="T3" s="113"/>
+      <c r="U3" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="131"/>
+      <c r="V3" s="140"/>
       <c r="W3" s="32"/>
       <c r="X3" s="32"/>
-      <c r="Y3" s="104" t="s">
+      <c r="Y3" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="116" t="s">
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="112" t="s">
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="108" t="s">
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="109"/>
+      <c r="AF3" s="96"/>
       <c r="AG3" s="10"/>
       <c r="AJ3" s="73" t="s">
         <v>48</v>
@@ -2181,34 +2197,34 @@
       <c r="B4" s="10"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="165"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="32"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="165"/>
-      <c r="O4" s="166"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="129"/>
       <c r="P4" s="32"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="141"/>
+      <c r="V4" s="142"/>
       <c r="W4" s="32"/>
       <c r="X4" s="32"/>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="111"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="98"/>
       <c r="AG4" s="10"/>
       <c r="AJ4" s="24" t="s">
         <v>25</v>
@@ -2216,7 +2232,7 @@
       <c r="AK4" s="74">
         <v>0</v>
       </c>
-      <c r="AL4" s="157">
+      <c r="AL4" s="99">
         <v>3</v>
       </c>
       <c r="AM4" s="74"/>
@@ -2228,56 +2244,56 @@
       <c r="B5" s="10"/>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
-      <c r="E5" s="148" t="s">
+      <c r="E5" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="149"/>
-      <c r="G5" s="152" t="s">
+      <c r="F5" s="121"/>
+      <c r="G5" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="153"/>
+      <c r="H5" s="125"/>
       <c r="I5" s="32"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="142" t="s">
+      <c r="J5" s="130"/>
+      <c r="K5" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="143"/>
-      <c r="M5" s="142" t="s">
+      <c r="L5" s="109"/>
+      <c r="M5" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="143"/>
-      <c r="O5" s="166"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="129"/>
       <c r="P5" s="32"/>
-      <c r="Q5" s="124" t="s">
+      <c r="Q5" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="125"/>
-      <c r="S5" s="142" t="s">
+      <c r="R5" s="136"/>
+      <c r="S5" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="143"/>
-      <c r="U5" s="134" t="s">
+      <c r="T5" s="109"/>
+      <c r="U5" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="135"/>
+      <c r="V5" s="144"/>
       <c r="W5" s="32"/>
       <c r="X5" s="32"/>
-      <c r="Y5" s="104" t="s">
+      <c r="Y5" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="116" t="s">
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="AB5" s="117"/>
-      <c r="AC5" s="112" t="s">
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="108" t="s">
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AF5" s="109"/>
+      <c r="AF5" s="96"/>
       <c r="AG5" s="10"/>
       <c r="AJ5" s="25" t="s">
         <v>26</v>
@@ -2285,7 +2301,7 @@
       <c r="AK5" s="75">
         <v>0</v>
       </c>
-      <c r="AL5" s="158"/>
+      <c r="AL5" s="100"/>
       <c r="AM5" s="75"/>
       <c r="AN5" s="69">
         <v>0</v>
@@ -2295,34 +2311,34 @@
       <c r="B6" s="10"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="155"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="127"/>
       <c r="I6" s="32"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="166"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="129"/>
       <c r="P6" s="32"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="145"/>
-      <c r="U6" s="136"/>
-      <c r="V6" s="137"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="138"/>
+      <c r="S6" s="110"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="146"/>
       <c r="W6" s="32"/>
       <c r="X6" s="32"/>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="107"/>
-      <c r="AA6" s="118"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="115"/>
-      <c r="AE6" s="110"/>
-      <c r="AF6" s="111"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="98"/>
       <c r="AG6" s="10"/>
       <c r="AJ6" s="25" t="s">
         <v>27</v>
@@ -2330,7 +2346,7 @@
       <c r="AK6" s="75">
         <v>0</v>
       </c>
-      <c r="AL6" s="158"/>
+      <c r="AL6" s="100"/>
       <c r="AM6" s="75"/>
       <c r="AN6" s="69">
         <v>0</v>
@@ -2340,40 +2356,40 @@
       <c r="B7" s="10"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
-      <c r="E7" s="141" t="s">
+      <c r="E7" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
-      <c r="Q7" s="138" t="s">
+      <c r="Q7" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
+      <c r="R7" s="147"/>
+      <c r="S7" s="147"/>
+      <c r="T7" s="147"/>
+      <c r="U7" s="147"/>
+      <c r="V7" s="147"/>
       <c r="W7" s="32"/>
       <c r="X7" s="32"/>
-      <c r="Y7" s="102" t="s">
+      <c r="Y7" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="Z7" s="102"/>
-      <c r="AA7" s="102"/>
-      <c r="AB7" s="102"/>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="102"/>
-      <c r="AE7" s="102"/>
-      <c r="AF7" s="102"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="150"/>
+      <c r="AF7" s="150"/>
       <c r="AG7" s="10"/>
       <c r="AJ7" s="26" t="s">
         <v>28</v>
@@ -2381,7 +2397,7 @@
       <c r="AK7" s="76">
         <v>0</v>
       </c>
-      <c r="AL7" s="159"/>
+      <c r="AL7" s="101"/>
       <c r="AM7" s="76"/>
       <c r="AN7" s="70">
         <v>0</v>
@@ -2426,7 +2442,7 @@
       <c r="AK8" s="74">
         <v>0</v>
       </c>
-      <c r="AL8" s="160">
+      <c r="AL8" s="102">
         <v>4</v>
       </c>
       <c r="AM8" s="74"/>
@@ -2473,7 +2489,7 @@
       <c r="AK9" s="76">
         <v>0</v>
       </c>
-      <c r="AL9" s="161"/>
+      <c r="AL9" s="103"/>
       <c r="AM9" s="76"/>
       <c r="AN9" s="70">
         <v>0</v>
@@ -2481,38 +2497,38 @@
     </row>
     <row r="10" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="139"/>
-      <c r="N10" s="139"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="103"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
       <c r="W10" s="32"/>
       <c r="X10" s="32"/>
-      <c r="Y10" s="170" t="s">
+      <c r="Y10" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="Z10" s="170"/>
-      <c r="AA10" s="170"/>
-      <c r="AB10" s="170"/>
-      <c r="AC10" s="170"/>
-      <c r="AD10" s="170"/>
-      <c r="AE10" s="170"/>
-      <c r="AF10" s="170"/>
+      <c r="Z10" s="151"/>
+      <c r="AA10" s="151"/>
+      <c r="AB10" s="151"/>
+      <c r="AC10" s="151"/>
+      <c r="AD10" s="151"/>
+      <c r="AE10" s="151"/>
+      <c r="AF10" s="151"/>
       <c r="AG10" s="10"/>
       <c r="AJ10" s="28" t="s">
         <v>30</v>
@@ -2534,12 +2550,18 @@
       <c r="F11" s="37"/>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
+      <c r="I11" s="182" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="183"/>
+      <c r="K11" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="117"/>
+      <c r="M11" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="92"/>
       <c r="O11" s="32"/>
       <c r="P11" s="32"/>
       <c r="Q11" s="50"/>
@@ -2552,18 +2574,18 @@
       <c r="X11" s="32"/>
       <c r="Y11" s="34"/>
       <c r="Z11" s="35"/>
-      <c r="AA11" s="116" t="s">
+      <c r="AA11" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="AB11" s="117"/>
-      <c r="AC11" s="112" t="s">
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AD11" s="113"/>
-      <c r="AE11" s="108" t="s">
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AF11" s="109"/>
+      <c r="AF11" s="96"/>
       <c r="AG11" s="10"/>
       <c r="AJ11" s="29" t="s">
         <v>31</v>
@@ -2585,12 +2607,12 @@
       <c r="F12" s="41"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="41"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="94"/>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
       <c r="Q12" s="54"/>
@@ -2603,12 +2625,12 @@
       <c r="X12" s="32"/>
       <c r="Y12" s="38"/>
       <c r="Z12" s="39"/>
-      <c r="AA12" s="118"/>
-      <c r="AB12" s="119"/>
-      <c r="AC12" s="114"/>
-      <c r="AD12" s="115"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="111"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="98"/>
       <c r="AG12" s="10"/>
       <c r="AJ12" s="9" t="s">
         <v>24</v>
@@ -2630,12 +2652,18 @@
       <c r="F13" s="45"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="45"/>
+      <c r="I13" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="109"/>
+      <c r="K13" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="109"/>
+      <c r="M13" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="109"/>
       <c r="O13" s="32"/>
       <c r="P13" s="32"/>
       <c r="Q13" s="58"/>
@@ -2646,22 +2674,22 @@
       <c r="V13" s="61"/>
       <c r="W13" s="32"/>
       <c r="X13" s="32"/>
-      <c r="Y13" s="104" t="s">
+      <c r="Y13" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="Z13" s="105"/>
-      <c r="AA13" s="116" t="s">
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="112" t="s">
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="113"/>
-      <c r="AE13" s="108" t="s">
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AF13" s="109"/>
+      <c r="AF13" s="96"/>
       <c r="AG13" s="10"/>
       <c r="AJ13" s="27" t="s">
         <v>51</v>
@@ -2685,12 +2713,12 @@
       <c r="F14" s="49"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="49"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="111"/>
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="62"/>
@@ -2701,16 +2729,16 @@
       <c r="V14" s="65"/>
       <c r="W14" s="32"/>
       <c r="X14" s="32"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="118"/>
-      <c r="AB14" s="119"/>
-      <c r="AC14" s="114"/>
-      <c r="AD14" s="115"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="111"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="97"/>
+      <c r="AF14" s="98"/>
       <c r="AG14" s="10"/>
-      <c r="AJ14" s="172" t="s">
+      <c r="AJ14" s="81" t="s">
         <v>47</v>
       </c>
       <c r="AK14" s="14">
@@ -2724,40 +2752,40 @@
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="32"/>
       <c r="H15" s="32"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
       <c r="O15" s="32"/>
       <c r="P15" s="32"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
       <c r="W15" s="32"/>
       <c r="X15" s="32"/>
-      <c r="Y15" s="171" t="s">
+      <c r="Y15" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="Z15" s="171"/>
-      <c r="AA15" s="171"/>
-      <c r="AB15" s="171"/>
-      <c r="AC15" s="171"/>
-      <c r="AD15" s="171"/>
-      <c r="AE15" s="171"/>
-      <c r="AF15" s="171"/>
+      <c r="Z15" s="161"/>
+      <c r="AA15" s="161"/>
+      <c r="AB15" s="161"/>
+      <c r="AC15" s="161"/>
+      <c r="AD15" s="161"/>
+      <c r="AE15" s="161"/>
+      <c r="AF15" s="161"/>
       <c r="AG15" s="10"/>
-      <c r="AJ15" s="173" t="s">
+      <c r="AJ15" s="82" t="s">
         <v>46</v>
       </c>
       <c r="AK15" s="75">
@@ -2770,7 +2798,7 @@
       <c r="AN15" s="69"/>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="AJ16" s="167" t="s">
+      <c r="AJ16" s="79" t="s">
         <v>63</v>
       </c>
       <c r="AK16" s="16"/>
@@ -2781,7 +2809,7 @@
       <c r="AN16" s="17"/>
     </row>
     <row r="17" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="AJ17" s="169" t="s">
+      <c r="AJ17" s="80" t="s">
         <v>65</v>
       </c>
       <c r="AK17" s="75"/>
@@ -2791,24 +2819,24 @@
     </row>
     <row r="18" spans="14:41" x14ac:dyDescent="0.2">
       <c r="N18" s="66"/>
-      <c r="O18" s="92" t="s">
+      <c r="O18" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="89" t="s">
+      <c r="P18" s="166"/>
+      <c r="Q18" s="166"/>
+      <c r="R18" s="166"/>
+      <c r="S18" s="166"/>
+      <c r="T18" s="167"/>
+      <c r="U18" s="162" t="s">
         <v>60</v>
       </c>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="91"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="84"/>
+      <c r="V18" s="163"/>
+      <c r="W18" s="163"/>
+      <c r="X18" s="164"/>
+      <c r="Y18" s="155"/>
+      <c r="Z18" s="156"/>
+      <c r="AA18" s="156"/>
+      <c r="AB18" s="157"/>
       <c r="AD18" s="174" t="s">
         <v>69</v>
       </c>
@@ -2823,20 +2851,20 @@
     </row>
     <row r="19" spans="14:41" x14ac:dyDescent="0.2">
       <c r="N19" s="66"/>
-      <c r="O19" s="95" t="s">
+      <c r="O19" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="98" t="s">
+      <c r="P19" s="169"/>
+      <c r="Q19" s="169"/>
+      <c r="R19" s="169"/>
+      <c r="S19" s="169"/>
+      <c r="T19" s="170"/>
+      <c r="U19" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="V19" s="99"/>
-      <c r="W19" s="99"/>
-      <c r="X19" s="100"/>
+      <c r="V19" s="172"/>
+      <c r="W19" s="172"/>
+      <c r="X19" s="173"/>
       <c r="Y19" s="66"/>
       <c r="Z19" s="66"/>
       <c r="AA19" s="66"/>
@@ -2917,7 +2945,7 @@
       <c r="Z22" s="66"/>
       <c r="AA22" s="66"/>
       <c r="AB22" s="66"/>
-      <c r="AE22" s="177" t="s">
+      <c r="AE22" s="179" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2937,7 +2965,7 @@
       <c r="Z23" s="66"/>
       <c r="AA23" s="66"/>
       <c r="AB23" s="66"/>
-      <c r="AE23" s="178"/>
+      <c r="AE23" s="180"/>
     </row>
     <row r="24" spans="14:41" x14ac:dyDescent="0.2">
       <c r="N24" s="66"/>
@@ -2955,7 +2983,7 @@
       <c r="Z24" s="66"/>
       <c r="AA24" s="66"/>
       <c r="AB24" s="66"/>
-      <c r="AE24" s="179"/>
+      <c r="AE24" s="181"/>
       <c r="AK24" s="1">
         <v>4</v>
       </c>
@@ -2975,25 +3003,25 @@
     </row>
     <row r="25" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N25" s="66"/>
-      <c r="O25" s="79" t="s">
+      <c r="O25" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="81"/>
-      <c r="W25" s="82" t="s">
+      <c r="P25" s="153"/>
+      <c r="Q25" s="153"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="153"/>
+      <c r="T25" s="153"/>
+      <c r="U25" s="153"/>
+      <c r="V25" s="154"/>
+      <c r="W25" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="X25" s="83"/>
-      <c r="Y25" s="83"/>
-      <c r="Z25" s="84"/>
+      <c r="X25" s="156"/>
+      <c r="Y25" s="156"/>
+      <c r="Z25" s="157"/>
       <c r="AA25" s="66"/>
       <c r="AB25" s="66"/>
-      <c r="AE25" s="180" t="s">
+      <c r="AE25" s="177" t="s">
         <v>68</v>
       </c>
       <c r="AK25" s="5">
@@ -3015,25 +3043,25 @@
     </row>
     <row r="26" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N26" s="66"/>
-      <c r="O26" s="85" t="s">
+      <c r="O26" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="82" t="s">
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159"/>
+      <c r="S26" s="159"/>
+      <c r="T26" s="160"/>
+      <c r="U26" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="V26" s="83"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="83"/>
-      <c r="Z26" s="84"/>
+      <c r="V26" s="156"/>
+      <c r="W26" s="156"/>
+      <c r="X26" s="156"/>
+      <c r="Y26" s="156"/>
+      <c r="Z26" s="157"/>
       <c r="AA26" s="66"/>
       <c r="AB26" s="66"/>
-      <c r="AE26" s="181"/>
+      <c r="AE26" s="178"/>
       <c r="AK26" s="21"/>
       <c r="AL26" s="22"/>
       <c r="AM26" s="22"/>
@@ -3044,17 +3072,49 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="AC13:AD14"/>
-    <mergeCell ref="AE13:AF14"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AA11:AB12"/>
-    <mergeCell ref="AC11:AD12"/>
-    <mergeCell ref="AE11:AF12"/>
-    <mergeCell ref="AL8:AL9"/>
+  <mergeCells count="68">
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="O25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="O26:T26"/>
+    <mergeCell ref="U26:Z26"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="AD18:AD20"/>
+    <mergeCell ref="AE18:AE20"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="Y7:AF7"/>
+    <mergeCell ref="Y10:AF10"/>
+    <mergeCell ref="Y3:Z4"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="AE5:AF6"/>
+    <mergeCell ref="AC3:AD4"/>
+    <mergeCell ref="AC5:AD6"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="AA5:AB6"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="S3:T4"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="M13:N14"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="K2:N2"/>
@@ -3071,42 +3131,16 @@
     <mergeCell ref="M5:N6"/>
     <mergeCell ref="M3:N4"/>
     <mergeCell ref="K3:L4"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="S3:T4"/>
-    <mergeCell ref="U3:V4"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="Y7:AF7"/>
-    <mergeCell ref="Y10:AF10"/>
-    <mergeCell ref="Y3:Z4"/>
-    <mergeCell ref="Y5:Z6"/>
-    <mergeCell ref="AE5:AF6"/>
-    <mergeCell ref="AC3:AD4"/>
-    <mergeCell ref="AC5:AD6"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="AA5:AB6"/>
-    <mergeCell ref="O25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="O26:T26"/>
-    <mergeCell ref="U26:Z26"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="AD18:AD20"/>
-    <mergeCell ref="AE18:AE20"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="AC13:AD14"/>
+    <mergeCell ref="AE13:AF14"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="AC11:AD12"/>
+    <mergeCell ref="AE11:AF12"/>
+    <mergeCell ref="AL8:AL9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/old/temp01/pin2.xlsx
+++ b/old/temp01/pin2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
   <si>
     <t>attachInterrupt(interrupt, function, mode)</t>
   </si>
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>TFT_eSPI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FAN-LED</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -291,6 +287,18 @@
   </si>
   <si>
     <t>+3.3V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAN-LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAN-LED</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -357,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +432,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="59">
     <border>
@@ -1187,7 +1201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1197,7 +1211,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1250,46 +1263,22 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,6 +1368,117 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1391,6 +1491,30 @@
     <xf numFmtId="49" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1403,43 +1527,94 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,46 +1623,10 @@
     <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,171 +1662,28 @@
     <xf numFmtId="49" fontId="2" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2052,938 +2048,946 @@
   <dimension ref="B1:AO26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:J14"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="35" width="2.26953125" customWidth="1"/>
     <col min="36" max="36" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="3.7265625" style="10" customWidth="1"/>
+    <col min="37" max="40" width="3.7265625" style="9" customWidth="1"/>
     <col min="41" max="41" width="3.7265625" customWidth="1"/>
     <col min="42" max="56" width="2.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="149" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="149"/>
-      <c r="AG2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="157" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="169" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="9"/>
       <c r="AJ2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AK2" s="11">
+      <c r="AK2" s="10">
         <v>7</v>
       </c>
-      <c r="AL2" s="11">
+      <c r="AL2" s="10">
         <v>0</v>
       </c>
-      <c r="AM2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN2" s="12"/>
+      <c r="AM2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="112" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="159" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="136"/>
+      <c r="G3" s="149" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="150"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="171" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="149" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="150"/>
+      <c r="M3" s="149" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="150"/>
+      <c r="O3" s="170" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="129"/>
+      <c r="S3" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="136"/>
+      <c r="U3" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="139"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="123" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="130" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="117"/>
-      <c r="M3" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="117"/>
-      <c r="O3" s="129" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="131" t="s">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="9"/>
+      <c r="AJ3" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AL3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN3" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="141"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="126"/>
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="9"/>
+      <c r="AJ4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK4" s="65">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="172">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="161" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="162"/>
+      <c r="G5" s="165" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="166"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="75"/>
+      <c r="M5" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="75"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="132"/>
-      <c r="S3" s="95" t="s">
+      <c r="R5" s="133"/>
+      <c r="S5" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="75"/>
+      <c r="U5" s="143" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" s="144"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="123" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" s="124"/>
+      <c r="AC5" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="113"/>
-      <c r="U3" s="139" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="140"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="10"/>
-      <c r="AJ3" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK3" s="13">
-        <v>4</v>
-      </c>
-      <c r="AL3" s="13">
+      <c r="AD5" s="120"/>
+      <c r="AE5" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF5" s="116"/>
+      <c r="AG5" s="9"/>
+      <c r="AJ5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK5" s="66">
         <v>0</v>
       </c>
-      <c r="AM3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN3" s="67">
+      <c r="AL5" s="173"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="60">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="134"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="141"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="10"/>
-      <c r="AJ4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK4" s="74">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="99">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="120" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="124" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="125"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="109"/>
-      <c r="M5" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="109"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" s="136"/>
-      <c r="S5" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="109"/>
-      <c r="U5" s="143" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" s="144"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF5" s="96"/>
-      <c r="AG5" s="10"/>
-      <c r="AJ5" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK5" s="75">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="100"/>
-      <c r="AM5" s="75"/>
-      <c r="AN5" s="69">
-        <v>0</v>
-      </c>
-    </row>
     <row r="6" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="137"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="111"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="77"/>
       <c r="U6" s="145"/>
       <c r="V6" s="146"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="94"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="10"/>
-      <c r="AJ6" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK6" s="75">
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="114"/>
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="117"/>
+      <c r="AF6" s="118"/>
+      <c r="AG6" s="9"/>
+      <c r="AJ6" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK6" s="66">
         <v>0</v>
       </c>
-      <c r="AL6" s="100"/>
-      <c r="AM6" s="75"/>
-      <c r="AN6" s="69">
+      <c r="AL6" s="173"/>
+      <c r="AM6" s="66"/>
+      <c r="AN6" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="158" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
       <c r="Q7" s="147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" s="147"/>
       <c r="S7" s="147"/>
       <c r="T7" s="147"/>
       <c r="U7" s="147"/>
       <c r="V7" s="147"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="150" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="150"/>
-      <c r="AD7" s="150"/>
-      <c r="AE7" s="150"/>
-      <c r="AF7" s="150"/>
-      <c r="AG7" s="10"/>
-      <c r="AJ7" s="26" t="s">
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="109"/>
+      <c r="AE7" s="109"/>
+      <c r="AF7" s="109"/>
+      <c r="AG7" s="9"/>
+      <c r="AJ7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK7" s="67">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="174"/>
+      <c r="AM7" s="67"/>
+      <c r="AN7" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="9"/>
+      <c r="AJ8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK8" s="65">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="175">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="65"/>
+      <c r="AN8" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="9"/>
+      <c r="AJ9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AK7" s="76">
+      <c r="AK9" s="67">
         <v>0</v>
       </c>
-      <c r="AL7" s="101"/>
-      <c r="AM7" s="76"/>
-      <c r="AN7" s="70">
+      <c r="AL9" s="176"/>
+      <c r="AM9" s="67"/>
+      <c r="AN9" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:40" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="10"/>
-      <c r="AJ8" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK8" s="74">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="102">
-        <v>4</v>
-      </c>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="10"/>
-      <c r="AJ9" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK9" s="76">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="103"/>
-      <c r="AM9" s="76"/>
-      <c r="AN9" s="70">
-        <v>0</v>
-      </c>
-    </row>
     <row r="10" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="148"/>
       <c r="J10" s="148"/>
       <c r="K10" s="148"/>
       <c r="L10" s="148"/>
       <c r="M10" s="148"/>
       <c r="N10" s="148"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="151" t="s">
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="142"/>
+      <c r="T10" s="142"/>
+      <c r="U10" s="142"/>
+      <c r="V10" s="142"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="110"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="110"/>
+      <c r="AG10" s="9"/>
+      <c r="AJ10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="13">
+        <v>4</v>
+      </c>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="62"/>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B11" s="177" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="120"/>
+      <c r="G11" s="178" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="153" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="154"/>
+      <c r="K11" s="149" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="150"/>
+      <c r="M11" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="120"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="123" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD11" s="120"/>
+      <c r="AE11" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="9"/>
+      <c r="AJ11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK11" s="66">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="66">
+        <v>4</v>
+      </c>
+      <c r="AM11" s="66"/>
+      <c r="AN11" s="60"/>
+    </row>
+    <row r="12" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="177"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="125"/>
+      <c r="AB12" s="126"/>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="118"/>
+      <c r="AG12" s="9"/>
+      <c r="AJ12" s="179" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK12" s="67">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="67">
+        <v>4</v>
+      </c>
+      <c r="AM12" s="67"/>
+      <c r="AN12" s="61"/>
+    </row>
+    <row r="13" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="177"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="75"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="75"/>
+      <c r="K13" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="75"/>
+      <c r="M13" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="75"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="123" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD13" s="120"/>
+      <c r="AE13" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF13" s="116"/>
+      <c r="AG13" s="9"/>
+      <c r="AJ13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK13" s="68">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="68">
+        <v>3</v>
+      </c>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="177"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="125"/>
+      <c r="AB14" s="126"/>
+      <c r="AC14" s="121"/>
+      <c r="AD14" s="122"/>
+      <c r="AE14" s="117"/>
+      <c r="AF14" s="118"/>
+      <c r="AG14" s="9"/>
+      <c r="AJ14" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>4</v>
+      </c>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="62"/>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="Z10" s="151"/>
-      <c r="AA10" s="151"/>
-      <c r="AB10" s="151"/>
-      <c r="AC10" s="151"/>
-      <c r="AD10" s="151"/>
-      <c r="AE10" s="151"/>
-      <c r="AF10" s="151"/>
-      <c r="AG10" s="10"/>
-      <c r="AJ10" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK10" s="14">
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="9"/>
+      <c r="AJ15" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK15" s="66">
         <v>0</v>
       </c>
-      <c r="AL10" s="14">
-        <v>4</v>
-      </c>
-      <c r="AM10" s="14"/>
-      <c r="AN10" s="71"/>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="182" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="183"/>
-      <c r="K11" s="116" t="s">
+      <c r="AL15" s="66">
+        <v>3</v>
+      </c>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="60"/>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AJ16" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="117"/>
-      <c r="M11" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF11" s="96"/>
-      <c r="AG11" s="10"/>
-      <c r="AJ11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK11" s="75">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="75">
-        <v>4</v>
-      </c>
-      <c r="AM11" s="75"/>
-      <c r="AN11" s="69"/>
-    </row>
-    <row r="12" spans="2:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="185"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="98"/>
-      <c r="AG12" s="10"/>
-      <c r="AJ12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK12" s="76">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="76">
-        <v>4</v>
-      </c>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="70"/>
-    </row>
-    <row r="13" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="109"/>
-      <c r="K13" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="109"/>
-      <c r="M13" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="109"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="10"/>
-      <c r="AJ13" s="27" t="s">
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="16"/>
+    </row>
+    <row r="17" spans="14:41" x14ac:dyDescent="0.2">
+      <c r="AJ17" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="66"/>
+      <c r="AM17" s="66"/>
+      <c r="AN17" s="69"/>
+    </row>
+    <row r="18" spans="14:41" x14ac:dyDescent="0.2">
+      <c r="N18" s="57"/>
+      <c r="O18" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="AK13" s="77">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="77">
-        <v>3</v>
-      </c>
-      <c r="AM13" s="77"/>
-      <c r="AN13" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:40" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="98"/>
-      <c r="AG14" s="10"/>
-      <c r="AJ14" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="14">
-        <v>4</v>
-      </c>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="71"/>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="161" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z15" s="161"/>
-      <c r="AA15" s="161"/>
-      <c r="AB15" s="161"/>
-      <c r="AC15" s="161"/>
-      <c r="AD15" s="161"/>
-      <c r="AE15" s="161"/>
-      <c r="AF15" s="161"/>
-      <c r="AG15" s="10"/>
-      <c r="AJ15" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK15" s="75">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="75">
-        <v>3</v>
-      </c>
-      <c r="AM15" s="75"/>
-      <c r="AN15" s="69"/>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="AJ16" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16">
-        <v>2</v>
-      </c>
-      <c r="AM16" s="16"/>
-      <c r="AN16" s="17"/>
-    </row>
-    <row r="17" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="AJ17" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK17" s="75"/>
-      <c r="AL17" s="75"/>
-      <c r="AM17" s="75"/>
-      <c r="AN17" s="78"/>
-    </row>
-    <row r="18" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N18" s="66"/>
-      <c r="O18" s="165" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="167"/>
-      <c r="U18" s="162" t="s">
-        <v>60</v>
-      </c>
-      <c r="V18" s="163"/>
-      <c r="W18" s="163"/>
-      <c r="X18" s="164"/>
-      <c r="Y18" s="155"/>
-      <c r="Z18" s="156"/>
-      <c r="AA18" s="156"/>
-      <c r="AB18" s="157"/>
-      <c r="AD18" s="174" t="s">
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="83"/>
+      <c r="AD18" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE18" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="AE18" s="174" t="s">
-        <v>70</v>
-      </c>
       <c r="AJ18" s="4"/>
-      <c r="AK18" s="75"/>
-      <c r="AL18" s="75"/>
-      <c r="AM18" s="75"/>
-      <c r="AN18" s="78"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="66"/>
+      <c r="AM18" s="66"/>
+      <c r="AN18" s="69"/>
     </row>
     <row r="19" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N19" s="66"/>
-      <c r="O19" s="168" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="169"/>
-      <c r="Q19" s="169"/>
-      <c r="R19" s="169"/>
-      <c r="S19" s="169"/>
-      <c r="T19" s="170"/>
-      <c r="U19" s="171" t="s">
-        <v>58</v>
-      </c>
-      <c r="V19" s="172"/>
-      <c r="W19" s="172"/>
-      <c r="X19" s="173"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AD19" s="175"/>
-      <c r="AE19" s="175"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AD19" s="101"/>
+      <c r="AE19" s="101"/>
       <c r="AJ19" s="4"/>
-      <c r="AK19" s="75"/>
-      <c r="AL19" s="75"/>
-      <c r="AM19" s="75"/>
-      <c r="AN19" s="78"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="69"/>
     </row>
     <row r="20" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AD20" s="176"/>
-      <c r="AE20" s="176"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
-      <c r="AN20" s="17"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AD20" s="102"/>
+      <c r="AE20" s="102"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="16"/>
     </row>
     <row r="21" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="19">
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="18">
         <f>SUM(AK2:AK16)</f>
         <v>11</v>
       </c>
-      <c r="AL21" s="19">
+      <c r="AL21" s="18">
         <f>SUM(AL2:AL16)</f>
         <v>31</v>
       </c>
-      <c r="AM21" s="19"/>
-      <c r="AN21" s="20"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="19"/>
     </row>
     <row r="22" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AE22" s="179" t="s">
-        <v>67</v>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="57"/>
+      <c r="AE22" s="105" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AE23" s="180"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="57"/>
+      <c r="AE23" s="106"/>
     </row>
     <row r="24" spans="14:41" x14ac:dyDescent="0.2">
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
-      <c r="AE24" s="181"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="57"/>
+      <c r="AE24" s="107"/>
       <c r="AK24" s="1">
         <v>4</v>
       </c>
@@ -3002,27 +3006,27 @@
       </c>
     </row>
     <row r="25" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N25" s="66"/>
-      <c r="O25" s="152" t="s">
-        <v>49</v>
-      </c>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="153"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="153"/>
-      <c r="T25" s="153"/>
-      <c r="U25" s="153"/>
-      <c r="V25" s="154"/>
-      <c r="W25" s="155" t="s">
-        <v>61</v>
-      </c>
-      <c r="X25" s="156"/>
-      <c r="Y25" s="156"/>
-      <c r="Z25" s="157"/>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="66"/>
-      <c r="AE25" s="177" t="s">
-        <v>68</v>
+      <c r="N25" s="57"/>
+      <c r="O25" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="83"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="57"/>
+      <c r="AE25" s="103" t="s">
+        <v>67</v>
       </c>
       <c r="AK25" s="5">
         <v>4</v>
@@ -3042,37 +3046,93 @@
       </c>
     </row>
     <row r="26" spans="14:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N26" s="66"/>
-      <c r="O26" s="158" t="s">
-        <v>50</v>
-      </c>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="159"/>
-      <c r="R26" s="159"/>
-      <c r="S26" s="159"/>
-      <c r="T26" s="160"/>
-      <c r="U26" s="155" t="s">
-        <v>57</v>
-      </c>
-      <c r="V26" s="156"/>
-      <c r="W26" s="156"/>
-      <c r="X26" s="156"/>
-      <c r="Y26" s="156"/>
-      <c r="Z26" s="157"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AE26" s="178"/>
-      <c r="AK26" s="21"/>
-      <c r="AL26" s="22"/>
-      <c r="AM26" s="22"/>
-      <c r="AN26" s="22"/>
-      <c r="AO26" s="23">
+      <c r="N26" s="57"/>
+      <c r="O26" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="83"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="57"/>
+      <c r="AE26" s="104"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="21"/>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="21"/>
+      <c r="AO26" s="22">
         <f>SUM(AO24:AO25)</f>
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="72">
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="AC13:AD14"/>
+    <mergeCell ref="AE13:AF14"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AA11:AB12"/>
+    <mergeCell ref="AC11:AD12"/>
+    <mergeCell ref="AE11:AF12"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="S3:T4"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="Y7:AF7"/>
+    <mergeCell ref="Y10:AF10"/>
+    <mergeCell ref="Y3:Z4"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="AE5:AF6"/>
+    <mergeCell ref="AC3:AD4"/>
+    <mergeCell ref="AC5:AD6"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="AA5:AB6"/>
     <mergeCell ref="K13:L14"/>
     <mergeCell ref="I13:J14"/>
     <mergeCell ref="O25:V25"/>
@@ -3089,58 +3149,6 @@
     <mergeCell ref="AE18:AE20"/>
     <mergeCell ref="AE25:AE26"/>
     <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="Y7:AF7"/>
-    <mergeCell ref="Y10:AF10"/>
-    <mergeCell ref="Y3:Z4"/>
-    <mergeCell ref="Y5:Z6"/>
-    <mergeCell ref="AE5:AF6"/>
-    <mergeCell ref="AC3:AD4"/>
-    <mergeCell ref="AC5:AD6"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="AA5:AB6"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="S3:T4"/>
-    <mergeCell ref="U3:V4"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="AC13:AD14"/>
-    <mergeCell ref="AE13:AF14"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AA11:AB12"/>
-    <mergeCell ref="AC11:AD12"/>
-    <mergeCell ref="AE11:AF12"/>
-    <mergeCell ref="AL8:AL9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
